--- a/InputData/dist-heat/HDL/Heat Distribution Losses.xlsx
+++ b/InputData/dist-heat/HDL/Heat Distribution Losses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\dist-heat\HDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\dist-heat\HDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D735AF-805A-4274-B76A-8B60469C6C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D9879-D4F5-4579-94EA-ED3425B7BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7FE0438B-EB0E-443A-8B0B-C67805A5FF58}"/>
+    <workbookView xWindow="-38330" yWindow="-5590" windowWidth="35160" windowHeight="17580" activeTab="2" xr2:uid="{7FE0438B-EB0E-443A-8B0B-C67805A5FF58}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>HDL Heat Distribution Losses</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>Tab: Steam balance</t>
   </si>
+  <si>
+    <t>UK - Steam balance (GWh)</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +185,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -380,33 +383,33 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -735,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBE8349-D73E-42FD-BD61-5E87CB115BAE}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -807,10 +810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39642C8C-268F-4856-9BB0-34EF5ACAA04A}">
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:AZ36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:AZ74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6399,6 +6402,5584 @@
       <c r="AZ36" s="24">
         <f t="shared" si="0"/>
         <v>5.5369911631663542E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2003</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2004</v>
+      </c>
+      <c r="G39" s="7">
+        <v>2005</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2006</v>
+      </c>
+      <c r="I39" s="7">
+        <v>2007</v>
+      </c>
+      <c r="J39" s="7">
+        <v>2008</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2009</v>
+      </c>
+      <c r="L39" s="7">
+        <v>2010</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2011</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2012</v>
+      </c>
+      <c r="O39" s="7">
+        <v>2013</v>
+      </c>
+      <c r="P39" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>2015</v>
+      </c>
+      <c r="R39" s="7">
+        <v>2016</v>
+      </c>
+      <c r="S39" s="7">
+        <v>2017</v>
+      </c>
+      <c r="T39" s="7">
+        <v>2018</v>
+      </c>
+      <c r="U39" s="7">
+        <v>2019</v>
+      </c>
+      <c r="V39" s="7">
+        <v>2020</v>
+      </c>
+      <c r="W39" s="7">
+        <v>2021</v>
+      </c>
+      <c r="X39" s="7">
+        <v>2022</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>2023</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>2024</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>2026</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>2027</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>2028</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>2029</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>2031</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>2032</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>2033</v>
+      </c>
+      <c r="AJ39" s="7">
+        <v>2034</v>
+      </c>
+      <c r="AK39" s="7">
+        <v>2035</v>
+      </c>
+      <c r="AL39" s="7">
+        <v>2036</v>
+      </c>
+      <c r="AM39" s="7">
+        <v>2037</v>
+      </c>
+      <c r="AN39" s="7">
+        <v>2038</v>
+      </c>
+      <c r="AO39" s="7">
+        <v>2039</v>
+      </c>
+      <c r="AP39" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AQ39" s="7">
+        <v>2041</v>
+      </c>
+      <c r="AR39" s="7">
+        <v>2042</v>
+      </c>
+      <c r="AS39" s="7">
+        <v>2043</v>
+      </c>
+      <c r="AT39" s="7">
+        <v>2044</v>
+      </c>
+      <c r="AU39" s="7">
+        <v>2045</v>
+      </c>
+      <c r="AV39" s="7">
+        <v>2046</v>
+      </c>
+      <c r="AW39" s="7">
+        <v>2047</v>
+      </c>
+      <c r="AX39" s="7">
+        <v>2048</v>
+      </c>
+      <c r="AY39" s="7">
+        <v>2049</v>
+      </c>
+      <c r="AZ39" s="7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12">
+        <v>0</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
+        <v>0</v>
+      </c>
+      <c r="N42" s="12">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12">
+        <v>0</v>
+      </c>
+      <c r="P42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="12">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12">
+        <v>0</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12">
+        <v>0</v>
+      </c>
+      <c r="W42" s="12">
+        <v>0</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="14">
+        <v>28358.784307713489</v>
+      </c>
+      <c r="C43" s="14">
+        <v>26483.720930232561</v>
+      </c>
+      <c r="D43" s="14">
+        <v>24301.162790697679</v>
+      </c>
+      <c r="E43" s="14">
+        <v>21077.906976744187</v>
+      </c>
+      <c r="F43" s="14">
+        <v>14806.976744186046</v>
+      </c>
+      <c r="G43" s="14">
+        <v>15881.585759007803</v>
+      </c>
+      <c r="H43" s="14">
+        <v>15170.930232558141</v>
+      </c>
+      <c r="I43" s="14">
+        <v>16343.604534883721</v>
+      </c>
+      <c r="J43" s="14">
+        <v>17873.837209302324</v>
+      </c>
+      <c r="K43" s="14">
+        <v>15125.581395348841</v>
+      </c>
+      <c r="L43" s="14">
+        <v>15821.318829277425</v>
+      </c>
+      <c r="M43" s="14">
+        <v>16142.094423003862</v>
+      </c>
+      <c r="N43" s="14">
+        <v>17824.8470830806</v>
+      </c>
+      <c r="O43" s="14">
+        <v>15658.570346226516</v>
+      </c>
+      <c r="P43" s="14">
+        <v>16808.085655693143</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>16539.522885880582</v>
+      </c>
+      <c r="R43" s="14">
+        <v>16882.193286922142</v>
+      </c>
+      <c r="S43" s="14">
+        <v>17221.850147527039</v>
+      </c>
+      <c r="T43" s="14">
+        <v>17869.442537053972</v>
+      </c>
+      <c r="U43" s="14">
+        <v>18371.57843989383</v>
+      </c>
+      <c r="V43" s="14">
+        <v>18927.830170266512</v>
+      </c>
+      <c r="W43" s="14">
+        <v>19264.440379865868</v>
+      </c>
+      <c r="X43" s="14">
+        <v>19072.26790818564</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>20250.822314334702</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>20853.628916132911</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>21011.911269687538</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>21702.999964325067</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>22465.899569716825</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>23450.901826208468</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>24346.971567442655</v>
+      </c>
+      <c r="AF43" s="14">
+        <v>24766.501284748156</v>
+      </c>
+      <c r="AG43" s="14">
+        <v>25479.93611036961</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>26342.959327380941</v>
+      </c>
+      <c r="AI43" s="14">
+        <v>27265.039647461883</v>
+      </c>
+      <c r="AJ43" s="14">
+        <v>28047.561457300853</v>
+      </c>
+      <c r="AK43" s="14">
+        <v>30575.626474484863</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>31016.414904138892</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>32670.634639189913</v>
+      </c>
+      <c r="AN43" s="14">
+        <v>34196.763889045353</v>
+      </c>
+      <c r="AO43" s="14">
+        <v>35555.186472133399</v>
+      </c>
+      <c r="AP43" s="14">
+        <v>36953.730278102652</v>
+      </c>
+      <c r="AQ43" s="14">
+        <v>39564.615534936951</v>
+      </c>
+      <c r="AR43" s="14">
+        <v>40521.771533027255</v>
+      </c>
+      <c r="AS43" s="14">
+        <v>42820.039581153345</v>
+      </c>
+      <c r="AT43" s="14">
+        <v>43849.575542106119</v>
+      </c>
+      <c r="AU43" s="14">
+        <v>44853.357022324701</v>
+      </c>
+      <c r="AV43" s="14">
+        <v>45885.442610752609</v>
+      </c>
+      <c r="AW43" s="14">
+        <v>47084.086662660658</v>
+      </c>
+      <c r="AX43" s="14">
+        <v>48332.432151797286</v>
+      </c>
+      <c r="AY43" s="14">
+        <v>49797.256660753279</v>
+      </c>
+      <c r="AZ43" s="14">
+        <v>51130.633515983667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0</v>
+      </c>
+      <c r="N44" s="16">
+        <v>0</v>
+      </c>
+      <c r="O44" s="16">
+        <v>0</v>
+      </c>
+      <c r="P44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
+      <c r="R44" s="16">
+        <v>0</v>
+      </c>
+      <c r="S44" s="16">
+        <v>0</v>
+      </c>
+      <c r="T44" s="16">
+        <v>0</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
+        <v>0</v>
+      </c>
+      <c r="W44" s="16">
+        <v>0</v>
+      </c>
+      <c r="X44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="16">
+        <v>28358.784307713489</v>
+      </c>
+      <c r="C45" s="16">
+        <v>26483.720930232561</v>
+      </c>
+      <c r="D45" s="16">
+        <v>24301.162790697679</v>
+      </c>
+      <c r="E45" s="16">
+        <v>21077.906976744187</v>
+      </c>
+      <c r="F45" s="16">
+        <v>14806.976744186046</v>
+      </c>
+      <c r="G45" s="16">
+        <v>15881.585759007803</v>
+      </c>
+      <c r="H45" s="16">
+        <v>15170.930232558141</v>
+      </c>
+      <c r="I45" s="16">
+        <v>16343.604534883721</v>
+      </c>
+      <c r="J45" s="16">
+        <v>17873.837209302324</v>
+      </c>
+      <c r="K45" s="16">
+        <v>15125.581395348841</v>
+      </c>
+      <c r="L45" s="16">
+        <v>15821.318829277425</v>
+      </c>
+      <c r="M45" s="16">
+        <v>16142.094423003862</v>
+      </c>
+      <c r="N45" s="16">
+        <v>17824.8470830806</v>
+      </c>
+      <c r="O45" s="16">
+        <v>15658.570346226516</v>
+      </c>
+      <c r="P45" s="16">
+        <v>16808.085655693143</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>16539.522885880582</v>
+      </c>
+      <c r="R45" s="16">
+        <v>16882.193286922142</v>
+      </c>
+      <c r="S45" s="16">
+        <v>17221.850147527039</v>
+      </c>
+      <c r="T45" s="16">
+        <v>17869.442537053972</v>
+      </c>
+      <c r="U45" s="16">
+        <v>18371.57843989383</v>
+      </c>
+      <c r="V45" s="16">
+        <v>18927.830170266512</v>
+      </c>
+      <c r="W45" s="16">
+        <v>19264.440379865868</v>
+      </c>
+      <c r="X45" s="16">
+        <v>19072.26790818564</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>20250.822314334702</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>20853.628916132911</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>21011.911269687538</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>21702.999964325067</v>
+      </c>
+      <c r="AC45" s="16">
+        <v>22465.899569716825</v>
+      </c>
+      <c r="AD45" s="16">
+        <v>23450.901826208468</v>
+      </c>
+      <c r="AE45" s="16">
+        <v>24346.971567442655</v>
+      </c>
+      <c r="AF45" s="16">
+        <v>24766.501284748156</v>
+      </c>
+      <c r="AG45" s="16">
+        <v>25479.93611036961</v>
+      </c>
+      <c r="AH45" s="16">
+        <v>26342.959327380941</v>
+      </c>
+      <c r="AI45" s="16">
+        <v>27265.039647461883</v>
+      </c>
+      <c r="AJ45" s="16">
+        <v>28047.561457300853</v>
+      </c>
+      <c r="AK45" s="16">
+        <v>30575.626474484863</v>
+      </c>
+      <c r="AL45" s="16">
+        <v>31016.414904138892</v>
+      </c>
+      <c r="AM45" s="16">
+        <v>32670.634639189913</v>
+      </c>
+      <c r="AN45" s="16">
+        <v>34196.763889045353</v>
+      </c>
+      <c r="AO45" s="16">
+        <v>35555.186472133399</v>
+      </c>
+      <c r="AP45" s="16">
+        <v>36953.730278102652</v>
+      </c>
+      <c r="AQ45" s="16">
+        <v>39564.615534936951</v>
+      </c>
+      <c r="AR45" s="16">
+        <v>40521.771533027255</v>
+      </c>
+      <c r="AS45" s="16">
+        <v>42820.039581153345</v>
+      </c>
+      <c r="AT45" s="16">
+        <v>43849.575542106119</v>
+      </c>
+      <c r="AU45" s="16">
+        <v>44853.357022324701</v>
+      </c>
+      <c r="AV45" s="16">
+        <v>45885.442610752609</v>
+      </c>
+      <c r="AW45" s="16">
+        <v>47084.086662660658</v>
+      </c>
+      <c r="AX45" s="16">
+        <v>48332.432151797286</v>
+      </c>
+      <c r="AY45" s="16">
+        <v>49797.256660753279</v>
+      </c>
+      <c r="AZ45" s="16">
+        <v>51130.633515983667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="14">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="14">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0</v>
+      </c>
+      <c r="P46" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>0</v>
+      </c>
+      <c r="R46" s="14">
+        <v>0</v>
+      </c>
+      <c r="S46" s="14">
+        <v>0</v>
+      </c>
+      <c r="T46" s="14">
+        <v>0</v>
+      </c>
+      <c r="U46" s="14">
+        <v>0</v>
+      </c>
+      <c r="V46" s="14">
+        <v>0</v>
+      </c>
+      <c r="W46" s="14">
+        <v>0</v>
+      </c>
+      <c r="X46" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="N47" s="16">
+        <v>0</v>
+      </c>
+      <c r="O47" s="16">
+        <v>0</v>
+      </c>
+      <c r="P47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>0</v>
+      </c>
+      <c r="R47" s="16">
+        <v>0</v>
+      </c>
+      <c r="S47" s="16">
+        <v>0</v>
+      </c>
+      <c r="T47" s="16">
+        <v>0</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0</v>
+      </c>
+      <c r="V47" s="16">
+        <v>0</v>
+      </c>
+      <c r="W47" s="16">
+        <v>0</v>
+      </c>
+      <c r="X47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="14">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14">
+        <v>31.395348837209301</v>
+      </c>
+      <c r="D48" s="14">
+        <v>65.116279069767444</v>
+      </c>
+      <c r="E48" s="14">
+        <v>27.90697674418605</v>
+      </c>
+      <c r="F48" s="14">
+        <v>183.72093023255815</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1137.573014635142</v>
+      </c>
+      <c r="H48" s="14">
+        <v>697.67441860465124</v>
+      </c>
+      <c r="I48" s="14">
+        <v>786.07441860465144</v>
+      </c>
+      <c r="J48" s="14">
+        <v>832.53104651162789</v>
+      </c>
+      <c r="K48" s="14">
+        <v>1097.6744186046512</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1095.636118831944</v>
+      </c>
+      <c r="M48" s="14">
+        <v>2118.5075575285323</v>
+      </c>
+      <c r="N48" s="14">
+        <v>3571.8570657281734</v>
+      </c>
+      <c r="O48" s="14">
+        <v>1855.4993434515118</v>
+      </c>
+      <c r="P48" s="14">
+        <v>3318.0138686147625</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>3141.378996225128</v>
+      </c>
+      <c r="R48" s="14">
+        <v>3199.724025142446</v>
+      </c>
+      <c r="S48" s="14">
+        <v>3243.7683532496558</v>
+      </c>
+      <c r="T48" s="14">
+        <v>3496.4558691489124</v>
+      </c>
+      <c r="U48" s="14">
+        <v>3662.6668704570093</v>
+      </c>
+      <c r="V48" s="14">
+        <v>3740.4920642130364</v>
+      </c>
+      <c r="W48" s="14">
+        <v>3778.0690717460629</v>
+      </c>
+      <c r="X48" s="14">
+        <v>3867.0253733533746</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>3796.2308302466022</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>3691.6308549423543</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>3678.8737860830674</v>
+      </c>
+      <c r="AB48" s="14">
+        <v>3669.868317089748</v>
+      </c>
+      <c r="AC48" s="14">
+        <v>3665.0984927068321</v>
+      </c>
+      <c r="AD48" s="14">
+        <v>3557.9576688318225</v>
+      </c>
+      <c r="AE48" s="14">
+        <v>3540.5638351221783</v>
+      </c>
+      <c r="AF48" s="14">
+        <v>3548.9044154201142</v>
+      </c>
+      <c r="AG48" s="14">
+        <v>3551.8659311672527</v>
+      </c>
+      <c r="AH48" s="14">
+        <v>3503.6257883157141</v>
+      </c>
+      <c r="AI48" s="14">
+        <v>3423.0943712224339</v>
+      </c>
+      <c r="AJ48" s="14">
+        <v>3401.4512658986923</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>3306.6081940358922</v>
+      </c>
+      <c r="AL48" s="14">
+        <v>3296.851877269592</v>
+      </c>
+      <c r="AM48" s="14">
+        <v>3306.5982100078495</v>
+      </c>
+      <c r="AN48" s="14">
+        <v>3309.5343936291033</v>
+      </c>
+      <c r="AO48" s="14">
+        <v>3298.5662791815112</v>
+      </c>
+      <c r="AP48" s="14">
+        <v>3288.9547720904543</v>
+      </c>
+      <c r="AQ48" s="14">
+        <v>3250.2020944049464</v>
+      </c>
+      <c r="AR48" s="14">
+        <v>3230.9513467526876</v>
+      </c>
+      <c r="AS48" s="14">
+        <v>3032.083953930086</v>
+      </c>
+      <c r="AT48" s="14">
+        <v>2835.1943786170787</v>
+      </c>
+      <c r="AU48" s="14">
+        <v>2795.7396960349233</v>
+      </c>
+      <c r="AV48" s="14">
+        <v>2772.9204839910817</v>
+      </c>
+      <c r="AW48" s="14">
+        <v>2766.1202164255715</v>
+      </c>
+      <c r="AX48" s="14">
+        <v>2595.6328991209416</v>
+      </c>
+      <c r="AY48" s="14">
+        <v>2525.4079516772404</v>
+      </c>
+      <c r="AZ48" s="14">
+        <v>2505.1216830723238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>161.62790697674419</v>
+      </c>
+      <c r="G49" s="16">
+        <v>830.95516280067466</v>
+      </c>
+      <c r="H49" s="16">
+        <v>697.67441860465124</v>
+      </c>
+      <c r="I49" s="16">
+        <v>786.07441860465144</v>
+      </c>
+      <c r="J49" s="16">
+        <v>832.53104651162789</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1097.6744186046512</v>
+      </c>
+      <c r="L49" s="16">
+        <v>1095.636118831944</v>
+      </c>
+      <c r="M49" s="16">
+        <v>2118.5075575285323</v>
+      </c>
+      <c r="N49" s="16">
+        <v>3571.8570657281734</v>
+      </c>
+      <c r="O49" s="16">
+        <v>1855.4993434515118</v>
+      </c>
+      <c r="P49" s="16">
+        <v>3318.0138686147625</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>3141.378996225128</v>
+      </c>
+      <c r="R49" s="16">
+        <v>3199.724025142446</v>
+      </c>
+      <c r="S49" s="16">
+        <v>3243.7683532496558</v>
+      </c>
+      <c r="T49" s="16">
+        <v>3496.4558691489124</v>
+      </c>
+      <c r="U49" s="16">
+        <v>3662.6668704570093</v>
+      </c>
+      <c r="V49" s="16">
+        <v>3740.4920642130364</v>
+      </c>
+      <c r="W49" s="16">
+        <v>3778.0690717460629</v>
+      </c>
+      <c r="X49" s="16">
+        <v>3867.0253733533746</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>3796.2308302466022</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>3691.6308549423543</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>3678.8737860830674</v>
+      </c>
+      <c r="AB49" s="16">
+        <v>3669.868317089748</v>
+      </c>
+      <c r="AC49" s="16">
+        <v>3665.0984927068321</v>
+      </c>
+      <c r="AD49" s="16">
+        <v>3557.9576688318225</v>
+      </c>
+      <c r="AE49" s="16">
+        <v>3540.5638351221783</v>
+      </c>
+      <c r="AF49" s="16">
+        <v>3548.9044154201142</v>
+      </c>
+      <c r="AG49" s="16">
+        <v>3551.8659311672527</v>
+      </c>
+      <c r="AH49" s="16">
+        <v>3503.6257883157141</v>
+      </c>
+      <c r="AI49" s="16">
+        <v>3423.0943712224339</v>
+      </c>
+      <c r="AJ49" s="16">
+        <v>3401.4512658986923</v>
+      </c>
+      <c r="AK49" s="16">
+        <v>3306.6081940358922</v>
+      </c>
+      <c r="AL49" s="16">
+        <v>3296.851877269592</v>
+      </c>
+      <c r="AM49" s="16">
+        <v>3306.5982100078495</v>
+      </c>
+      <c r="AN49" s="16">
+        <v>3309.5343936291033</v>
+      </c>
+      <c r="AO49" s="16">
+        <v>3298.5662791815112</v>
+      </c>
+      <c r="AP49" s="16">
+        <v>3288.9547720904543</v>
+      </c>
+      <c r="AQ49" s="16">
+        <v>3250.2020944049464</v>
+      </c>
+      <c r="AR49" s="16">
+        <v>3230.9513467526876</v>
+      </c>
+      <c r="AS49" s="16">
+        <v>3032.083953930086</v>
+      </c>
+      <c r="AT49" s="16">
+        <v>2835.1943786170787</v>
+      </c>
+      <c r="AU49" s="16">
+        <v>2795.7396960349233</v>
+      </c>
+      <c r="AV49" s="16">
+        <v>2772.9204839910817</v>
+      </c>
+      <c r="AW49" s="16">
+        <v>2766.1202164255715</v>
+      </c>
+      <c r="AX49" s="16">
+        <v>2595.6328991209416</v>
+      </c>
+      <c r="AY49" s="16">
+        <v>2525.4079516772404</v>
+      </c>
+      <c r="AZ49" s="16">
+        <v>2505.1216830723238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0</v>
+      </c>
+      <c r="M50" s="16">
+        <v>0</v>
+      </c>
+      <c r="N50" s="16">
+        <v>0</v>
+      </c>
+      <c r="O50" s="16">
+        <v>0</v>
+      </c>
+      <c r="P50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <v>0</v>
+      </c>
+      <c r="S50" s="16">
+        <v>0</v>
+      </c>
+      <c r="T50" s="16">
+        <v>0</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
+        <v>0</v>
+      </c>
+      <c r="W50" s="16">
+        <v>0</v>
+      </c>
+      <c r="X50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16">
+        <v>0</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
+        <v>0</v>
+      </c>
+      <c r="S51" s="16">
+        <v>0</v>
+      </c>
+      <c r="T51" s="16">
+        <v>0</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0</v>
+      </c>
+      <c r="V51" s="16">
+        <v>0</v>
+      </c>
+      <c r="W51" s="16">
+        <v>0</v>
+      </c>
+      <c r="X51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <v>31.395348837209301</v>
+      </c>
+      <c r="D52" s="16">
+        <v>65.116279069767444</v>
+      </c>
+      <c r="E52" s="16">
+        <v>27.90697674418605</v>
+      </c>
+      <c r="F52" s="16">
+        <v>22.093023255813954</v>
+      </c>
+      <c r="G52" s="16">
+        <v>306.61785183446744</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>0</v>
+      </c>
+      <c r="R52" s="16">
+        <v>0</v>
+      </c>
+      <c r="S52" s="16">
+        <v>0</v>
+      </c>
+      <c r="T52" s="16">
+        <v>0</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0</v>
+      </c>
+      <c r="V52" s="16">
+        <v>0</v>
+      </c>
+      <c r="W52" s="16">
+        <v>0</v>
+      </c>
+      <c r="X52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0</v>
+      </c>
+      <c r="P53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>0</v>
+      </c>
+      <c r="R53" s="14">
+        <v>8.3757765943191487</v>
+      </c>
+      <c r="S53" s="14">
+        <v>25.333388968369231</v>
+      </c>
+      <c r="T53" s="14">
+        <v>51.646697994479119</v>
+      </c>
+      <c r="U53" s="14">
+        <v>86.730115973786752</v>
+      </c>
+      <c r="V53" s="14">
+        <v>129.77424190609173</v>
+      </c>
+      <c r="W53" s="14">
+        <v>177.43984209066221</v>
+      </c>
+      <c r="X53" s="14">
+        <v>223.42780547651563</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>291.67845702986449</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>363.05844764634122</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>425.93157888005868</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>505.39691852513715</v>
+      </c>
+      <c r="AC53" s="14">
+        <v>589.28515218097323</v>
+      </c>
+      <c r="AD53" s="14">
+        <v>685.50758052626816</v>
+      </c>
+      <c r="AE53" s="14">
+        <v>778.36719787690413</v>
+      </c>
+      <c r="AF53" s="14">
+        <v>848.03951333801467</v>
+      </c>
+      <c r="AG53" s="14">
+        <v>931.31931771462234</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>1018.9781183416592</v>
+      </c>
+      <c r="AI53" s="14">
+        <v>1107.1766593819134</v>
+      </c>
+      <c r="AJ53" s="14">
+        <v>1182.6730604262386</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>1308.2653798922463</v>
+      </c>
+      <c r="AL53" s="14">
+        <v>1356.5042585252588</v>
+      </c>
+      <c r="AM53" s="14">
+        <v>1444.138439775973</v>
+      </c>
+      <c r="AN53" s="14">
+        <v>1524.3144044470141</v>
+      </c>
+      <c r="AO53" s="14">
+        <v>1595.6217911767699</v>
+      </c>
+      <c r="AP53" s="14">
+        <v>1665.8188454569479</v>
+      </c>
+      <c r="AQ53" s="14">
+        <v>1774.5663636226234</v>
+      </c>
+      <c r="AR53" s="14">
+        <v>1825.4620591066537</v>
+      </c>
+      <c r="AS53" s="14">
+        <v>1926.8210620065802</v>
+      </c>
+      <c r="AT53" s="14">
+        <v>1984.2495641025282</v>
+      </c>
+      <c r="AU53" s="14">
+        <v>2032.9928311001736</v>
+      </c>
+      <c r="AV53" s="14">
+        <v>2078.7342068891853</v>
+      </c>
+      <c r="AW53" s="14">
+        <v>2129.9480548844017</v>
+      </c>
+      <c r="AX53" s="14">
+        <v>2187.6845017624833</v>
+      </c>
+      <c r="AY53" s="14">
+        <v>2248.4340899162362</v>
+      </c>
+      <c r="AZ53" s="14">
+        <v>2302.6920456469197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="14">
+        <v>28358.784307713482</v>
+      </c>
+      <c r="C54" s="14">
+        <v>26452.325581395358</v>
+      </c>
+      <c r="D54" s="14">
+        <v>24236.046511627912</v>
+      </c>
+      <c r="E54" s="14">
+        <v>21050.000000000007</v>
+      </c>
+      <c r="F54" s="14">
+        <v>14623.255813953489</v>
+      </c>
+      <c r="G54" s="14">
+        <v>14744.01274437266</v>
+      </c>
+      <c r="H54" s="14">
+        <v>14473.255813953489</v>
+      </c>
+      <c r="I54" s="14">
+        <v>15557.530116279071</v>
+      </c>
+      <c r="J54" s="14">
+        <v>17041.306162790697</v>
+      </c>
+      <c r="K54" s="14">
+        <v>14027.906976744185</v>
+      </c>
+      <c r="L54" s="14">
+        <v>14725.682710445481</v>
+      </c>
+      <c r="M54" s="14">
+        <v>14023.586865475336</v>
+      </c>
+      <c r="N54" s="14">
+        <v>14252.990017352422</v>
+      </c>
+      <c r="O54" s="14">
+        <v>13803.071002775003</v>
+      </c>
+      <c r="P54" s="14">
+        <v>13490.07178707837</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>13398.143889655461</v>
+      </c>
+      <c r="R54" s="14">
+        <v>13674.09348518538</v>
+      </c>
+      <c r="S54" s="14">
+        <v>13952.748405309012</v>
+      </c>
+      <c r="T54" s="14">
+        <v>14321.339969910583</v>
+      </c>
+      <c r="U54" s="14">
+        <v>14622.181453463039</v>
+      </c>
+      <c r="V54" s="14">
+        <v>15057.563864147383</v>
+      </c>
+      <c r="W54" s="14">
+        <v>15308.93146602914</v>
+      </c>
+      <c r="X54" s="14">
+        <v>14981.814729355745</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>16162.913027058234</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>16798.939613544215</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>16907.105904724413</v>
+      </c>
+      <c r="AB54" s="14">
+        <v>17527.73472871018</v>
+      </c>
+      <c r="AC54" s="14">
+        <v>18211.515924829022</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>19207.436576850381</v>
+      </c>
+      <c r="AE54" s="14">
+        <v>20028.040534443575</v>
+      </c>
+      <c r="AF54" s="14">
+        <v>20369.557355990029</v>
+      </c>
+      <c r="AG54" s="14">
+        <v>20996.750861487737</v>
+      </c>
+      <c r="AH54" s="14">
+        <v>21820.355420723565</v>
+      </c>
+      <c r="AI54" s="14">
+        <v>22734.768616857535</v>
+      </c>
+      <c r="AJ54" s="14">
+        <v>23463.437130975919</v>
+      </c>
+      <c r="AK54" s="14">
+        <v>25960.75290055673</v>
+      </c>
+      <c r="AL54" s="14">
+        <v>26363.058768344039</v>
+      </c>
+      <c r="AM54" s="14">
+        <v>27919.89798940609</v>
+      </c>
+      <c r="AN54" s="14">
+        <v>29362.915090969233</v>
+      </c>
+      <c r="AO54" s="14">
+        <v>30660.998401775119</v>
+      </c>
+      <c r="AP54" s="14">
+        <v>31998.956660555254</v>
+      </c>
+      <c r="AQ54" s="14">
+        <v>34539.847076909384</v>
+      </c>
+      <c r="AR54" s="14">
+        <v>35465.358127167914</v>
+      </c>
+      <c r="AS54" s="14">
+        <v>37861.134565216686</v>
+      </c>
+      <c r="AT54" s="14">
+        <v>39030.131599386506</v>
+      </c>
+      <c r="AU54" s="14">
+        <v>40024.624495189601</v>
+      </c>
+      <c r="AV54" s="14">
+        <v>41033.787919872346</v>
+      </c>
+      <c r="AW54" s="14">
+        <v>42188.018391350692</v>
+      </c>
+      <c r="AX54" s="14">
+        <v>43549.114750913861</v>
+      </c>
+      <c r="AY54" s="14">
+        <v>45023.414619159805</v>
+      </c>
+      <c r="AZ54" s="14">
+        <v>46322.819787264423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="16">
+        <v>28358.784307713482</v>
+      </c>
+      <c r="C55" s="16">
+        <v>26452.325581395358</v>
+      </c>
+      <c r="D55" s="16">
+        <v>24236.046511627912</v>
+      </c>
+      <c r="E55" s="16">
+        <v>21050.000000000007</v>
+      </c>
+      <c r="F55" s="16">
+        <v>14623.255813953489</v>
+      </c>
+      <c r="G55" s="16">
+        <v>14744.01274437266</v>
+      </c>
+      <c r="H55" s="16">
+        <v>14473.255813953489</v>
+      </c>
+      <c r="I55" s="16">
+        <v>15557.530116279071</v>
+      </c>
+      <c r="J55" s="16">
+        <v>17040.143372093022</v>
+      </c>
+      <c r="K55" s="16">
+        <v>14027.906976744185</v>
+      </c>
+      <c r="L55" s="16">
+        <v>14725.404967927829</v>
+      </c>
+      <c r="M55" s="16">
+        <v>14023.864593262111</v>
+      </c>
+      <c r="N55" s="16">
+        <v>14252.990017352422</v>
+      </c>
+      <c r="O55" s="16">
+        <v>13803.071002775003</v>
+      </c>
+      <c r="P55" s="16">
+        <v>13489.794045007684</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>13398.143889655461</v>
+      </c>
+      <c r="R55" s="16">
+        <v>13674.09348518538</v>
+      </c>
+      <c r="S55" s="16">
+        <v>13952.748405309012</v>
+      </c>
+      <c r="T55" s="16">
+        <v>14321.339969910583</v>
+      </c>
+      <c r="U55" s="16">
+        <v>14622.181453463039</v>
+      </c>
+      <c r="V55" s="16">
+        <v>15057.563864147383</v>
+      </c>
+      <c r="W55" s="16">
+        <v>15308.93146602914</v>
+      </c>
+      <c r="X55" s="16">
+        <v>14981.814729355745</v>
+      </c>
+      <c r="Y55" s="16">
+        <v>16162.913027058234</v>
+      </c>
+      <c r="Z55" s="16">
+        <v>16798.939613544215</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>16907.105904724413</v>
+      </c>
+      <c r="AB55" s="16">
+        <v>17527.73472871018</v>
+      </c>
+      <c r="AC55" s="16">
+        <v>18211.515924829022</v>
+      </c>
+      <c r="AD55" s="16">
+        <v>19207.436576850381</v>
+      </c>
+      <c r="AE55" s="16">
+        <v>20028.040534443575</v>
+      </c>
+      <c r="AF55" s="16">
+        <v>20369.557355990029</v>
+      </c>
+      <c r="AG55" s="16">
+        <v>20996.750861487737</v>
+      </c>
+      <c r="AH55" s="16">
+        <v>21820.355420723565</v>
+      </c>
+      <c r="AI55" s="16">
+        <v>22734.768616857535</v>
+      </c>
+      <c r="AJ55" s="16">
+        <v>23463.437130975919</v>
+      </c>
+      <c r="AK55" s="16">
+        <v>25960.75290055673</v>
+      </c>
+      <c r="AL55" s="16">
+        <v>26363.058768344039</v>
+      </c>
+      <c r="AM55" s="16">
+        <v>27919.89798940609</v>
+      </c>
+      <c r="AN55" s="16">
+        <v>29362.915090969233</v>
+      </c>
+      <c r="AO55" s="16">
+        <v>30660.998401775119</v>
+      </c>
+      <c r="AP55" s="16">
+        <v>31998.956660555254</v>
+      </c>
+      <c r="AQ55" s="16">
+        <v>34539.847076909384</v>
+      </c>
+      <c r="AR55" s="16">
+        <v>35465.358127167914</v>
+      </c>
+      <c r="AS55" s="16">
+        <v>37861.134565216686</v>
+      </c>
+      <c r="AT55" s="16">
+        <v>39030.131599386506</v>
+      </c>
+      <c r="AU55" s="16">
+        <v>40024.624495189601</v>
+      </c>
+      <c r="AV55" s="16">
+        <v>41033.787919872346</v>
+      </c>
+      <c r="AW55" s="16">
+        <v>42188.018391350692</v>
+      </c>
+      <c r="AX55" s="16">
+        <v>43549.114750913861</v>
+      </c>
+      <c r="AY55" s="16">
+        <v>45023.414619159805</v>
+      </c>
+      <c r="AZ55" s="16">
+        <v>46322.819787264423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="18">
+        <v>12783.808128976814</v>
+      </c>
+      <c r="C56" s="18">
+        <v>11644.184069767442</v>
+      </c>
+      <c r="D56" s="18">
+        <v>15359.277093023262</v>
+      </c>
+      <c r="E56" s="18">
+        <v>13390.711511627909</v>
+      </c>
+      <c r="F56" s="18">
+        <v>9678.6715116279065</v>
+      </c>
+      <c r="G56" s="18">
+        <v>9657.150601780555</v>
+      </c>
+      <c r="H56" s="18">
+        <v>9405.8193023255808</v>
+      </c>
+      <c r="I56" s="18">
+        <v>10416.649534883722</v>
+      </c>
+      <c r="J56" s="18">
+        <v>11868.218139534882</v>
+      </c>
+      <c r="K56" s="18">
+        <v>8870.4973255813966</v>
+      </c>
+      <c r="L56" s="18">
+        <v>9559.9446336838919</v>
+      </c>
+      <c r="M56" s="18">
+        <v>8945.8897398468289</v>
+      </c>
+      <c r="N56" s="18">
+        <v>8904.7860274039504</v>
+      </c>
+      <c r="O56" s="18">
+        <v>8559.011856337278</v>
+      </c>
+      <c r="P56" s="18">
+        <v>8286.8400827473542</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>8074.6593747724346</v>
+      </c>
+      <c r="R56" s="18">
+        <v>8070.1616345688653</v>
+      </c>
+      <c r="S56" s="18">
+        <v>8314.0709693848894</v>
+      </c>
+      <c r="T56" s="18">
+        <v>8425.7282856656766</v>
+      </c>
+      <c r="U56" s="18">
+        <v>8461.4839988611111</v>
+      </c>
+      <c r="V56" s="18">
+        <v>8723.8248690306755</v>
+      </c>
+      <c r="W56" s="18">
+        <v>9275.3434998725679</v>
+      </c>
+      <c r="X56" s="18">
+        <v>9528.6200348309558</v>
+      </c>
+      <c r="Y56" s="18">
+        <v>10891.618239626405</v>
+      </c>
+      <c r="Z56" s="18">
+        <v>11597.794327289408</v>
+      </c>
+      <c r="AA56" s="18">
+        <v>11914.504107335551</v>
+      </c>
+      <c r="AB56" s="18">
+        <v>12253.48455408781</v>
+      </c>
+      <c r="AC56" s="18">
+        <v>12662.799575505702</v>
+      </c>
+      <c r="AD56" s="18">
+        <v>13444.979706555594</v>
+      </c>
+      <c r="AE56" s="18">
+        <v>14023.356313789571</v>
+      </c>
+      <c r="AF56" s="18">
+        <v>14497.804578132087</v>
+      </c>
+      <c r="AG56" s="18">
+        <v>14855.898663760443</v>
+      </c>
+      <c r="AH56" s="18">
+        <v>15579.451053728</v>
+      </c>
+      <c r="AI56" s="18">
+        <v>16395.243405618185</v>
+      </c>
+      <c r="AJ56" s="18">
+        <v>17051.603886305715</v>
+      </c>
+      <c r="AK56" s="18">
+        <v>19621.291968063633</v>
+      </c>
+      <c r="AL56" s="18">
+        <v>20149.977244052985</v>
+      </c>
+      <c r="AM56" s="18">
+        <v>21625.009049225679</v>
+      </c>
+      <c r="AN56" s="18">
+        <v>23004.13886956645</v>
+      </c>
+      <c r="AO56" s="18">
+        <v>24249.689175758725</v>
+      </c>
+      <c r="AP56" s="18">
+        <v>25516.178126081584</v>
+      </c>
+      <c r="AQ56" s="18">
+        <v>27975.085620986923</v>
+      </c>
+      <c r="AR56" s="18">
+        <v>28827.303890089363</v>
+      </c>
+      <c r="AS56" s="18">
+        <v>31159.290609465686</v>
+      </c>
+      <c r="AT56" s="18">
+        <v>32261.194949356632</v>
+      </c>
+      <c r="AU56" s="18">
+        <v>33156.945589875104</v>
+      </c>
+      <c r="AV56" s="18">
+        <v>34103.416935588015</v>
+      </c>
+      <c r="AW56" s="18">
+        <v>35186.701815234024</v>
+      </c>
+      <c r="AX56" s="18">
+        <v>36458.806439228494</v>
+      </c>
+      <c r="AY56" s="18">
+        <v>37868.028855354831</v>
+      </c>
+      <c r="AZ56" s="18">
+        <v>39107.044119479317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="20">
+        <v>0</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0</v>
+      </c>
+      <c r="J57" s="20">
+        <v>0</v>
+      </c>
+      <c r="K57" s="20">
+        <v>0</v>
+      </c>
+      <c r="L57" s="20">
+        <v>0</v>
+      </c>
+      <c r="M57" s="20">
+        <v>0</v>
+      </c>
+      <c r="N57" s="20">
+        <v>0</v>
+      </c>
+      <c r="O57" s="20">
+        <v>0</v>
+      </c>
+      <c r="P57" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="20">
+        <v>0</v>
+      </c>
+      <c r="R57" s="20">
+        <v>0</v>
+      </c>
+      <c r="S57" s="20">
+        <v>0</v>
+      </c>
+      <c r="T57" s="20">
+        <v>3.5047925749984716</v>
+      </c>
+      <c r="U57" s="20">
+        <v>3.4136890518027836</v>
+      </c>
+      <c r="V57" s="20">
+        <v>3.3026810061259702</v>
+      </c>
+      <c r="W57" s="20">
+        <v>3.2692863633574336</v>
+      </c>
+      <c r="X57" s="20">
+        <v>3.2417498181411268</v>
+      </c>
+      <c r="Y57" s="20">
+        <v>10.786822141166969</v>
+      </c>
+      <c r="Z57" s="20">
+        <v>10.646957881445918</v>
+      </c>
+      <c r="AA57" s="20">
+        <v>12.758163149078138</v>
+      </c>
+      <c r="AB57" s="20">
+        <v>12.936997307956224</v>
+      </c>
+      <c r="AC57" s="20">
+        <v>13.247142952481529</v>
+      </c>
+      <c r="AD57" s="20">
+        <v>13.538332373284673</v>
+      </c>
+      <c r="AE57" s="20">
+        <v>15.314659676105832</v>
+      </c>
+      <c r="AF57" s="20">
+        <v>17.454887765543489</v>
+      </c>
+      <c r="AG57" s="20">
+        <v>17.969880356702642</v>
+      </c>
+      <c r="AH57" s="20">
+        <v>19.019972172705799</v>
+      </c>
+      <c r="AI57" s="20">
+        <v>20.488285851805376</v>
+      </c>
+      <c r="AJ57" s="20">
+        <v>22.895583587441283</v>
+      </c>
+      <c r="AK57" s="20">
+        <v>25.608298086656063</v>
+      </c>
+      <c r="AL57" s="20">
+        <v>28.358253470547243</v>
+      </c>
+      <c r="AM57" s="20">
+        <v>29.640077489707895</v>
+      </c>
+      <c r="AN57" s="20">
+        <v>30.94776101708813</v>
+      </c>
+      <c r="AO57" s="20">
+        <v>32.089140963844713</v>
+      </c>
+      <c r="AP57" s="20">
+        <v>33.581502010026568</v>
+      </c>
+      <c r="AQ57" s="20">
+        <v>35.171545332002623</v>
+      </c>
+      <c r="AR57" s="20">
+        <v>36.987662410331822</v>
+      </c>
+      <c r="AS57" s="20">
+        <v>47.23397607508241</v>
+      </c>
+      <c r="AT57" s="20">
+        <v>49.328338133629359</v>
+      </c>
+      <c r="AU57" s="20">
+        <v>53.940735749448564</v>
+      </c>
+      <c r="AV57" s="20">
+        <v>59.949972680139588</v>
+      </c>
+      <c r="AW57" s="20">
+        <v>65.227992567688204</v>
+      </c>
+      <c r="AX57" s="20">
+        <v>70.331475073738801</v>
+      </c>
+      <c r="AY57" s="20">
+        <v>76.39365343539508</v>
+      </c>
+      <c r="AZ57" s="20">
+        <v>81.584347827689655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>0</v>
+      </c>
+      <c r="I58" s="20">
+        <v>0</v>
+      </c>
+      <c r="J58" s="20">
+        <v>0</v>
+      </c>
+      <c r="K58" s="20">
+        <v>0</v>
+      </c>
+      <c r="L58" s="20">
+        <v>0</v>
+      </c>
+      <c r="M58" s="20">
+        <v>0</v>
+      </c>
+      <c r="N58" s="20">
+        <v>0</v>
+      </c>
+      <c r="O58" s="20">
+        <v>0</v>
+      </c>
+      <c r="P58" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="20">
+        <v>0</v>
+      </c>
+      <c r="R58" s="20">
+        <v>0</v>
+      </c>
+      <c r="S58" s="20">
+        <v>0</v>
+      </c>
+      <c r="T58" s="20">
+        <v>0.25394273264255379</v>
+      </c>
+      <c r="U58" s="20">
+        <v>1.0276388464644917</v>
+      </c>
+      <c r="V58" s="20">
+        <v>1.9527759653555565</v>
+      </c>
+      <c r="W58" s="20">
+        <v>3.3474972555594902</v>
+      </c>
+      <c r="X58" s="20">
+        <v>4.6480917628895622</v>
+      </c>
+      <c r="Y58" s="20">
+        <v>6.0331451707380799</v>
+      </c>
+      <c r="Z58" s="20">
+        <v>9.6502692920022746</v>
+      </c>
+      <c r="AA58" s="20">
+        <v>11.533424002092126</v>
+      </c>
+      <c r="AB58" s="20">
+        <v>12.823441101710079</v>
+      </c>
+      <c r="AC58" s="20">
+        <v>15.593706759577868</v>
+      </c>
+      <c r="AD58" s="20">
+        <v>17.012028949645323</v>
+      </c>
+      <c r="AE58" s="20">
+        <v>18.15937101232598</v>
+      </c>
+      <c r="AF58" s="20">
+        <v>19.436724543417871</v>
+      </c>
+      <c r="AG58" s="20">
+        <v>19.745000187843029</v>
+      </c>
+      <c r="AH58" s="20">
+        <v>20.181525751388598</v>
+      </c>
+      <c r="AI58" s="20">
+        <v>21.387784117512258</v>
+      </c>
+      <c r="AJ58" s="20">
+        <v>23.429155161728428</v>
+      </c>
+      <c r="AK58" s="20">
+        <v>26.019037268384459</v>
+      </c>
+      <c r="AL58" s="20">
+        <v>30.709742935751898</v>
+      </c>
+      <c r="AM58" s="20">
+        <v>36.956039656210926</v>
+      </c>
+      <c r="AN58" s="20">
+        <v>44.383924584570089</v>
+      </c>
+      <c r="AO58" s="20">
+        <v>65.752255207986536</v>
+      </c>
+      <c r="AP58" s="20">
+        <v>80.096502516546579</v>
+      </c>
+      <c r="AQ58" s="20">
+        <v>93.899928555153011</v>
+      </c>
+      <c r="AR58" s="20">
+        <v>116.46987214717963</v>
+      </c>
+      <c r="AS58" s="20">
+        <v>132.1727465933136</v>
+      </c>
+      <c r="AT58" s="20">
+        <v>143.04211054386496</v>
+      </c>
+      <c r="AU58" s="20">
+        <v>153.42825346438352</v>
+      </c>
+      <c r="AV58" s="20">
+        <v>158.92324965430427</v>
+      </c>
+      <c r="AW58" s="20">
+        <v>180.63018466130211</v>
+      </c>
+      <c r="AX58" s="20">
+        <v>188.01412869021436</v>
+      </c>
+      <c r="AY58" s="20">
+        <v>196.98844409580769</v>
+      </c>
+      <c r="AZ58" s="20">
+        <v>205.2720578801254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="20">
+        <v>12644.667001130923</v>
+      </c>
+      <c r="C59" s="20">
+        <v>11495.346860465115</v>
+      </c>
+      <c r="D59" s="20">
+        <v>15239.509418604655</v>
+      </c>
+      <c r="E59" s="20">
+        <v>12754.660348837213</v>
+      </c>
+      <c r="F59" s="20">
+        <v>4575.4180232558138</v>
+      </c>
+      <c r="G59" s="20">
+        <v>4556.6798260188525</v>
+      </c>
+      <c r="H59" s="20">
+        <v>4308.8001162790697</v>
+      </c>
+      <c r="I59" s="20">
+        <v>5576.3510465116287</v>
+      </c>
+      <c r="J59" s="20">
+        <v>6884.7620930232542</v>
+      </c>
+      <c r="K59" s="20">
+        <v>4033.9891860465132</v>
+      </c>
+      <c r="L59" s="20">
+        <v>4823.5525005879745</v>
+      </c>
+      <c r="M59" s="20">
+        <v>4065.9346111690779</v>
+      </c>
+      <c r="N59" s="20">
+        <v>3905.1379740611496</v>
+      </c>
+      <c r="O59" s="20">
+        <v>3777.6356001596605</v>
+      </c>
+      <c r="P59" s="20">
+        <v>3263.6019066217127</v>
+      </c>
+      <c r="Q59" s="20">
+        <v>3017.8061556378002</v>
+      </c>
+      <c r="R59" s="20">
+        <v>2978.9474148786417</v>
+      </c>
+      <c r="S59" s="20">
+        <v>3175.2561817739179</v>
+      </c>
+      <c r="T59" s="20">
+        <v>3220.2003585327016</v>
+      </c>
+      <c r="U59" s="20">
+        <v>3282.5482687687149</v>
+      </c>
+      <c r="V59" s="20">
+        <v>3464.0512226550413</v>
+      </c>
+      <c r="W59" s="20">
+        <v>3913.1696227065477</v>
+      </c>
+      <c r="X59" s="20">
+        <v>4036.9959777845588</v>
+      </c>
+      <c r="Y59" s="20">
+        <v>4885.9433475869828</v>
+      </c>
+      <c r="Z59" s="20">
+        <v>5017.7336069191279</v>
+      </c>
+      <c r="AA59" s="20">
+        <v>5144.266408334377</v>
+      </c>
+      <c r="AB59" s="20">
+        <v>5308.61139942913</v>
+      </c>
+      <c r="AC59" s="20">
+        <v>5485.1299851808008</v>
+      </c>
+      <c r="AD59" s="20">
+        <v>5658.4528753131672</v>
+      </c>
+      <c r="AE59" s="20">
+        <v>5877.0605431530794</v>
+      </c>
+      <c r="AF59" s="20">
+        <v>6086.118643644334</v>
+      </c>
+      <c r="AG59" s="20">
+        <v>6280.1006163789789</v>
+      </c>
+      <c r="AH59" s="20">
+        <v>6525.3399475063052</v>
+      </c>
+      <c r="AI59" s="20">
+        <v>6809.4365424822017</v>
+      </c>
+      <c r="AJ59" s="20">
+        <v>7126.9447708458629</v>
+      </c>
+      <c r="AK59" s="20">
+        <v>9034.7717008642321</v>
+      </c>
+      <c r="AL59" s="20">
+        <v>9399.8132208840816</v>
+      </c>
+      <c r="AM59" s="20">
+        <v>10698.959917050801</v>
+      </c>
+      <c r="AN59" s="20">
+        <v>11893.688601789248</v>
+      </c>
+      <c r="AO59" s="20">
+        <v>12951.302617803387</v>
+      </c>
+      <c r="AP59" s="20">
+        <v>14032.22627480458</v>
+      </c>
+      <c r="AQ59" s="20">
+        <v>16201.335210067418</v>
+      </c>
+      <c r="AR59" s="20">
+        <v>16846.526016834156</v>
+      </c>
+      <c r="AS59" s="20">
+        <v>18684.685518868919</v>
+      </c>
+      <c r="AT59" s="20">
+        <v>19365.610376728357</v>
+      </c>
+      <c r="AU59" s="20">
+        <v>20020.706786734812</v>
+      </c>
+      <c r="AV59" s="20">
+        <v>20786.592095397224</v>
+      </c>
+      <c r="AW59" s="20">
+        <v>21565.708114878602</v>
+      </c>
+      <c r="AX59" s="20">
+        <v>22403.790851101759</v>
+      </c>
+      <c r="AY59" s="20">
+        <v>23401.94931827228</v>
+      </c>
+      <c r="AZ59" s="20">
+        <v>24270.705000379781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="20">
+        <v>20.274056552395688</v>
+      </c>
+      <c r="C60" s="20">
+        <v>27.90697674418605</v>
+      </c>
+      <c r="D60" s="20">
+        <v>45.347093023255816</v>
+      </c>
+      <c r="E60" s="20">
+        <v>3.4883720930232553</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>0</v>
+      </c>
+      <c r="I60" s="20">
+        <v>0</v>
+      </c>
+      <c r="J60" s="20">
+        <v>0</v>
+      </c>
+      <c r="K60" s="20">
+        <v>0</v>
+      </c>
+      <c r="L60" s="20">
+        <v>0</v>
+      </c>
+      <c r="M60" s="20">
+        <v>0</v>
+      </c>
+      <c r="N60" s="20">
+        <v>0</v>
+      </c>
+      <c r="O60" s="20">
+        <v>0</v>
+      </c>
+      <c r="P60" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>0</v>
+      </c>
+      <c r="R60" s="20">
+        <v>0</v>
+      </c>
+      <c r="S60" s="20">
+        <v>0</v>
+      </c>
+      <c r="T60" s="20">
+        <v>0</v>
+      </c>
+      <c r="U60" s="20">
+        <v>0</v>
+      </c>
+      <c r="V60" s="20">
+        <v>0</v>
+      </c>
+      <c r="W60" s="20">
+        <v>0</v>
+      </c>
+      <c r="X60" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="20">
+        <v>21.348680440100878</v>
+      </c>
+      <c r="AB60" s="20">
+        <v>25.523857806205356</v>
+      </c>
+      <c r="AC60" s="20">
+        <v>29.455661748783477</v>
+      </c>
+      <c r="AD60" s="20">
+        <v>86.441861997930545</v>
+      </c>
+      <c r="AE60" s="20">
+        <v>90.654505873201686</v>
+      </c>
+      <c r="AF60" s="20">
+        <v>115.22893536393563</v>
+      </c>
+      <c r="AG60" s="20">
+        <v>119.03838700194073</v>
+      </c>
+      <c r="AH60" s="20">
+        <v>125.71999802011929</v>
+      </c>
+      <c r="AI60" s="20">
+        <v>132.39147792130299</v>
+      </c>
+      <c r="AJ60" s="20">
+        <v>143.85926534423089</v>
+      </c>
+      <c r="AK60" s="20">
+        <v>155.83379136816404</v>
+      </c>
+      <c r="AL60" s="20">
+        <v>170.49466034926934</v>
+      </c>
+      <c r="AM60" s="20">
+        <v>181.43724994808608</v>
+      </c>
+      <c r="AN60" s="20">
+        <v>189.3123297006708</v>
+      </c>
+      <c r="AO60" s="20">
+        <v>195.68275627130885</v>
+      </c>
+      <c r="AP60" s="20">
+        <v>204.80145954792638</v>
+      </c>
+      <c r="AQ60" s="20">
+        <v>301.10146420024682</v>
+      </c>
+      <c r="AR60" s="20">
+        <v>315.64951952875077</v>
+      </c>
+      <c r="AS60" s="20">
+        <v>407.38953973876522</v>
+      </c>
+      <c r="AT60" s="20">
+        <v>419.49878387950048</v>
+      </c>
+      <c r="AU60" s="20">
+        <v>436.90284206654741</v>
+      </c>
+      <c r="AV60" s="20">
+        <v>448.40039356697218</v>
+      </c>
+      <c r="AW60" s="20">
+        <v>456.87611701568943</v>
+      </c>
+      <c r="AX60" s="20">
+        <v>496.72295580470706</v>
+      </c>
+      <c r="AY60" s="20">
+        <v>552.77441719793433</v>
+      </c>
+      <c r="AZ60" s="20">
+        <v>567.27469681228752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="20">
+        <v>0</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>313.94232558139532</v>
+      </c>
+      <c r="G61" s="20">
+        <v>354.65838592223218</v>
+      </c>
+      <c r="H61" s="20">
+        <v>260.43476744186046</v>
+      </c>
+      <c r="I61" s="20">
+        <v>13.953139534883721</v>
+      </c>
+      <c r="J61" s="20">
+        <v>16.278372093023258</v>
+      </c>
+      <c r="K61" s="20">
+        <v>0</v>
+      </c>
+      <c r="L61" s="20">
+        <v>16.386197575100937</v>
+      </c>
+      <c r="M61" s="20">
+        <v>16.386180014687341</v>
+      </c>
+      <c r="N61" s="20">
+        <v>13.886416236616004</v>
+      </c>
+      <c r="O61" s="20">
+        <v>0</v>
+      </c>
+      <c r="P61" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="20">
+        <v>0</v>
+      </c>
+      <c r="R61" s="20">
+        <v>0</v>
+      </c>
+      <c r="S61" s="20">
+        <v>21.450395851907818</v>
+      </c>
+      <c r="T61" s="20">
+        <v>53.945203640098583</v>
+      </c>
+      <c r="U61" s="20">
+        <v>83.485039290314077</v>
+      </c>
+      <c r="V61" s="20">
+        <v>119.53780475101874</v>
+      </c>
+      <c r="W61" s="20">
+        <v>154.4393143199716</v>
+      </c>
+      <c r="X61" s="20">
+        <v>196.06183680118684</v>
+      </c>
+      <c r="Y61" s="20">
+        <v>236.67698301270792</v>
+      </c>
+      <c r="Z61" s="20">
+        <v>277.91648718554876</v>
+      </c>
+      <c r="AA61" s="20">
+        <v>319.40416480515415</v>
+      </c>
+      <c r="AB61" s="20">
+        <v>361.63393693482698</v>
+      </c>
+      <c r="AC61" s="20">
+        <v>404.16345127560294</v>
+      </c>
+      <c r="AD61" s="20">
+        <v>445.40103103814056</v>
+      </c>
+      <c r="AE61" s="20">
+        <v>486.8630929754857</v>
+      </c>
+      <c r="AF61" s="20">
+        <v>528.60601565502304</v>
+      </c>
+      <c r="AG61" s="20">
+        <v>534.79322753560791</v>
+      </c>
+      <c r="AH61" s="20">
+        <v>541.41691462609231</v>
+      </c>
+      <c r="AI61" s="20">
+        <v>549.48963249238977</v>
+      </c>
+      <c r="AJ61" s="20">
+        <v>556.80258151472333</v>
+      </c>
+      <c r="AK61" s="20">
+        <v>688.45225035582462</v>
+      </c>
+      <c r="AL61" s="20">
+        <v>697.95589229655604</v>
+      </c>
+      <c r="AM61" s="20">
+        <v>709.18936483754305</v>
+      </c>
+      <c r="AN61" s="20">
+        <v>725.29823822280537</v>
+      </c>
+      <c r="AO61" s="20">
+        <v>733.01814993361734</v>
+      </c>
+      <c r="AP61" s="20">
+        <v>743.74232831330289</v>
+      </c>
+      <c r="AQ61" s="20">
+        <v>754.69013130267331</v>
+      </c>
+      <c r="AR61" s="20">
+        <v>766.13489560440235</v>
+      </c>
+      <c r="AS61" s="20">
+        <v>774.95011919137573</v>
+      </c>
+      <c r="AT61" s="20">
+        <v>784.79804728314468</v>
+      </c>
+      <c r="AU61" s="20">
+        <v>795.89134521513756</v>
+      </c>
+      <c r="AV61" s="20">
+        <v>812.22690767843403</v>
+      </c>
+      <c r="AW61" s="20">
+        <v>921.6478214509724</v>
+      </c>
+      <c r="AX61" s="20">
+        <v>1063.8586992818296</v>
+      </c>
+      <c r="AY61" s="20">
+        <v>1216.9332112592447</v>
+      </c>
+      <c r="AZ61" s="20">
+        <v>1388.1985468914663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="20">
+        <v>0</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>74.420581395348819</v>
+      </c>
+      <c r="E62" s="20">
+        <v>62.793604651162781</v>
+      </c>
+      <c r="F62" s="20">
+        <v>29.06953488372092</v>
+      </c>
+      <c r="G62" s="20">
+        <v>8.3317735031839817</v>
+      </c>
+      <c r="H62" s="20">
+        <v>6.9761627906976722</v>
+      </c>
+      <c r="I62" s="20">
+        <v>19.765465116279067</v>
+      </c>
+      <c r="J62" s="20">
+        <v>115.11546511627901</v>
+      </c>
+      <c r="K62" s="20">
+        <v>11.629534883720929</v>
+      </c>
+      <c r="L62" s="20">
+        <v>13.05322625987219</v>
+      </c>
+      <c r="M62" s="20">
+        <v>19.44111478252513</v>
+      </c>
+      <c r="N62" s="20">
+        <v>32.771942318413736</v>
+      </c>
+      <c r="O62" s="20">
+        <v>0</v>
+      </c>
+      <c r="P62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>0</v>
+      </c>
+      <c r="R62" s="20">
+        <v>0</v>
+      </c>
+      <c r="S62" s="20">
+        <v>14.024870518078814</v>
+      </c>
+      <c r="T62" s="20">
+        <v>31.080186666303653</v>
+      </c>
+      <c r="U62" s="20">
+        <v>43.153851933986758</v>
+      </c>
+      <c r="V62" s="20">
+        <v>56.840673186596646</v>
+      </c>
+      <c r="W62" s="20">
+        <v>60.696504412916561</v>
+      </c>
+      <c r="X62" s="20">
+        <v>65.952256356675221</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>88.677186740029541</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>111.55408920877416</v>
+      </c>
+      <c r="AA62" s="20">
+        <v>135.32016857703209</v>
+      </c>
+      <c r="AB62" s="20">
+        <v>142.36654653250883</v>
+      </c>
+      <c r="AC62" s="20">
+        <v>169.23826000175117</v>
+      </c>
+      <c r="AD62" s="20">
+        <v>176.95260884742322</v>
+      </c>
+      <c r="AE62" s="20">
+        <v>184.86792838132757</v>
+      </c>
+      <c r="AF62" s="20">
+        <v>239.51910662170809</v>
+      </c>
+      <c r="AG62" s="20">
+        <v>268.11066406066828</v>
+      </c>
+      <c r="AH62" s="20">
+        <v>297.76929268161064</v>
+      </c>
+      <c r="AI62" s="20">
+        <v>350.82384327554928</v>
+      </c>
+      <c r="AJ62" s="20">
+        <v>382.50055487073541</v>
+      </c>
+      <c r="AK62" s="20">
+        <v>415.73702948723621</v>
+      </c>
+      <c r="AL62" s="20">
+        <v>425.74004752755246</v>
+      </c>
+      <c r="AM62" s="20">
+        <v>446.1640357569384</v>
+      </c>
+      <c r="AN62" s="20">
+        <v>471.67747783342469</v>
+      </c>
+      <c r="AO62" s="20">
+        <v>496.82271081193784</v>
+      </c>
+      <c r="AP62" s="20">
+        <v>521.09463799956359</v>
+      </c>
+      <c r="AQ62" s="20">
+        <v>533.68512961784927</v>
+      </c>
+      <c r="AR62" s="20">
+        <v>546.53510244540621</v>
+      </c>
+      <c r="AS62" s="20">
+        <v>564.27240315149356</v>
+      </c>
+      <c r="AT62" s="20">
+        <v>581.7724251665544</v>
+      </c>
+      <c r="AU62" s="20">
+        <v>600.40453073982428</v>
+      </c>
+      <c r="AV62" s="20">
+        <v>613.85164408201763</v>
+      </c>
+      <c r="AW62" s="20">
+        <v>632.39367863376083</v>
+      </c>
+      <c r="AX62" s="20">
+        <v>647.52247293187202</v>
+      </c>
+      <c r="AY62" s="20">
+        <v>662.37348833906753</v>
+      </c>
+      <c r="AZ62" s="20">
+        <v>686.59151182125424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="20">
+        <v>0</v>
+      </c>
+      <c r="C63" s="20">
+        <v>0</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <v>156.96930232558137</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20">
+        <v>0</v>
+      </c>
+      <c r="I63" s="20">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20">
+        <v>0</v>
+      </c>
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20">
+        <v>0</v>
+      </c>
+      <c r="M63" s="20">
+        <v>0</v>
+      </c>
+      <c r="N63" s="20">
+        <v>0</v>
+      </c>
+      <c r="O63" s="20">
+        <v>0</v>
+      </c>
+      <c r="P63" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>0</v>
+      </c>
+      <c r="R63" s="20">
+        <v>0</v>
+      </c>
+      <c r="S63" s="20">
+        <v>0</v>
+      </c>
+      <c r="T63" s="20">
+        <v>11.630403517089508</v>
+      </c>
+      <c r="U63" s="20">
+        <v>23.186864975540111</v>
+      </c>
+      <c r="V63" s="20">
+        <v>35.084827829725889</v>
+      </c>
+      <c r="W63" s="20">
+        <v>47.905688566330369</v>
+      </c>
+      <c r="X63" s="20">
+        <v>61.03418564725613</v>
+      </c>
+      <c r="Y63" s="20">
+        <v>73.66162841889826</v>
+      </c>
+      <c r="Z63" s="20">
+        <v>87.248932557377245</v>
+      </c>
+      <c r="AA63" s="20">
+        <v>101.17882971023889</v>
+      </c>
+      <c r="AB63" s="20">
+        <v>115.97516971520353</v>
+      </c>
+      <c r="AC63" s="20">
+        <v>132.6759244068123</v>
+      </c>
+      <c r="AD63" s="20">
+        <v>149.00368858663117</v>
+      </c>
+      <c r="AE63" s="20">
+        <v>165.57322688303225</v>
+      </c>
+      <c r="AF63" s="20">
+        <v>182.46809347205954</v>
+      </c>
+      <c r="AG63" s="20">
+        <v>190.18110774823259</v>
+      </c>
+      <c r="AH63" s="20">
+        <v>198.16900409470941</v>
+      </c>
+      <c r="AI63" s="20">
+        <v>207.08806448201861</v>
+      </c>
+      <c r="AJ63" s="20">
+        <v>215.76184481067321</v>
+      </c>
+      <c r="AK63" s="20">
+        <v>264.11082729529784</v>
+      </c>
+      <c r="AL63" s="20">
+        <v>272.64917133520152</v>
+      </c>
+      <c r="AM63" s="20">
+        <v>281.41654131347764</v>
+      </c>
+      <c r="AN63" s="20">
+        <v>290.26283333601413</v>
+      </c>
+      <c r="AO63" s="20">
+        <v>299.15761638788712</v>
+      </c>
+      <c r="AP63" s="20">
+        <v>308.10224796652369</v>
+      </c>
+      <c r="AQ63" s="20">
+        <v>348.35726425150898</v>
+      </c>
+      <c r="AR63" s="20">
+        <v>377.71817285810926</v>
+      </c>
+      <c r="AS63" s="20">
+        <v>429.87833298007718</v>
+      </c>
+      <c r="AT63" s="20">
+        <v>504.4148513645664</v>
+      </c>
+      <c r="AU63" s="20">
+        <v>547.06652942391793</v>
+      </c>
+      <c r="AV63" s="20">
+        <v>556.11057254492016</v>
+      </c>
+      <c r="AW63" s="20">
+        <v>565.82440849101215</v>
+      </c>
+      <c r="AX63" s="20">
+        <v>586.77839527332799</v>
+      </c>
+      <c r="AY63" s="20">
+        <v>605.00844743688162</v>
+      </c>
+      <c r="AZ63" s="20">
+        <v>622.12628211430354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="20">
+        <v>0</v>
+      </c>
+      <c r="C64" s="20">
+        <v>0</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="20">
+        <v>144.19418604651162</v>
+      </c>
+      <c r="F64" s="20">
+        <v>26.744418604651166</v>
+      </c>
+      <c r="G64" s="20">
+        <v>31.383240101184214</v>
+      </c>
+      <c r="H64" s="20">
+        <v>20.927790697674425</v>
+      </c>
+      <c r="I64" s="20">
+        <v>32.557209302325582</v>
+      </c>
+      <c r="J64" s="20">
+        <v>49.99558139534885</v>
+      </c>
+      <c r="K64" s="20">
+        <v>0</v>
+      </c>
+      <c r="L64" s="20">
+        <v>0</v>
+      </c>
+      <c r="M64" s="20">
+        <v>0</v>
+      </c>
+      <c r="N64" s="20">
+        <v>0</v>
+      </c>
+      <c r="O64" s="20">
+        <v>0</v>
+      </c>
+      <c r="P64" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>0</v>
+      </c>
+      <c r="R64" s="20">
+        <v>0</v>
+      </c>
+      <c r="S64" s="20">
+        <v>0</v>
+      </c>
+      <c r="T64" s="20">
+        <v>1.6639379602271973</v>
+      </c>
+      <c r="U64" s="20">
+        <v>3.09472386790612</v>
+      </c>
+      <c r="V64" s="20">
+        <v>4.6732477448902401</v>
+      </c>
+      <c r="W64" s="20">
+        <v>6.5848760783764329</v>
+      </c>
+      <c r="X64" s="20">
+        <v>8.5452980739670554</v>
+      </c>
+      <c r="Y64" s="20">
+        <v>10.439066906067291</v>
+      </c>
+      <c r="Z64" s="20">
+        <v>12.38054996244462</v>
+      </c>
+      <c r="AA64" s="20">
+        <v>14.396030508079011</v>
+      </c>
+      <c r="AB64" s="20">
+        <v>16.540182876466421</v>
+      </c>
+      <c r="AC64" s="20">
+        <v>18.909930899098175</v>
+      </c>
+      <c r="AD64" s="20">
+        <v>21.207146336126257</v>
+      </c>
+      <c r="AE64" s="20">
+        <v>23.502316374009581</v>
+      </c>
+      <c r="AF64" s="20">
+        <v>25.791804208353909</v>
+      </c>
+      <c r="AG64" s="20">
+        <v>26.930420377835198</v>
+      </c>
+      <c r="AH64" s="20">
+        <v>29.660017694664923</v>
+      </c>
+      <c r="AI64" s="20">
+        <v>35.110467268632732</v>
+      </c>
+      <c r="AJ64" s="20">
+        <v>35.544276608396586</v>
+      </c>
+      <c r="AK64" s="20">
+        <v>36.029816107720485</v>
+      </c>
+      <c r="AL64" s="20">
+        <v>36.570114864161944</v>
+      </c>
+      <c r="AM64" s="20">
+        <v>37.167586396145857</v>
+      </c>
+      <c r="AN64" s="20">
+        <v>37.803272970692682</v>
+      </c>
+      <c r="AO64" s="20">
+        <v>38.469412119018195</v>
+      </c>
+      <c r="AP64" s="20">
+        <v>39.15779788836587</v>
+      </c>
+      <c r="AQ64" s="20">
+        <v>39.877313945702106</v>
+      </c>
+      <c r="AR64" s="20">
+        <v>40.627895627811178</v>
+      </c>
+      <c r="AS64" s="20">
+        <v>45.932272640173082</v>
+      </c>
+      <c r="AT64" s="20">
+        <v>51.192029592041152</v>
+      </c>
+      <c r="AU64" s="20">
+        <v>56.65876539814122</v>
+      </c>
+      <c r="AV64" s="20">
+        <v>57.461306189452998</v>
+      </c>
+      <c r="AW64" s="20">
+        <v>58.318387855740639</v>
+      </c>
+      <c r="AX64" s="20">
+        <v>60.745546547551285</v>
+      </c>
+      <c r="AY64" s="20">
+        <v>63.034913567292698</v>
+      </c>
+      <c r="AZ64" s="20">
+        <v>65.284784882005312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="20">
+        <v>118.86707129349787</v>
+      </c>
+      <c r="C65" s="20">
+        <v>120.93023255813951</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <v>0</v>
+      </c>
+      <c r="I65" s="20">
+        <v>0</v>
+      </c>
+      <c r="J65" s="20">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>0</v>
+      </c>
+      <c r="L65" s="20">
+        <v>0</v>
+      </c>
+      <c r="M65" s="20">
+        <v>0</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0</v>
+      </c>
+      <c r="O65" s="20">
+        <v>0</v>
+      </c>
+      <c r="P65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="20">
+        <v>0</v>
+      </c>
+      <c r="R65" s="20">
+        <v>0</v>
+      </c>
+      <c r="S65" s="20">
+        <v>0</v>
+      </c>
+      <c r="T65" s="20">
+        <v>0</v>
+      </c>
+      <c r="U65" s="20">
+        <v>0.94480738670146147</v>
+      </c>
+      <c r="V65" s="20">
+        <v>2.9922813984961949</v>
+      </c>
+      <c r="W65" s="20">
+        <v>3.3478903534503868</v>
+      </c>
+      <c r="X65" s="20">
+        <v>6.3053524701845935</v>
+      </c>
+      <c r="Y65" s="20">
+        <v>12.197249469734729</v>
+      </c>
+      <c r="Z65" s="20">
+        <v>12.648317246682936</v>
+      </c>
+      <c r="AA65" s="20">
+        <v>13.19329633515823</v>
+      </c>
+      <c r="AB65" s="20">
+        <v>20.84442640661986</v>
+      </c>
+      <c r="AC65" s="20">
+        <v>34.569213197295674</v>
+      </c>
+      <c r="AD65" s="20">
+        <v>41.712150964401694</v>
+      </c>
+      <c r="AE65" s="20">
+        <v>42.444993180438139</v>
+      </c>
+      <c r="AF65" s="20">
+        <v>49.318664929207372</v>
+      </c>
+      <c r="AG65" s="20">
+        <v>61.480095728491918</v>
+      </c>
+      <c r="AH65" s="20">
+        <v>68.201229706603456</v>
+      </c>
+      <c r="AI65" s="20">
+        <v>81.040001005494034</v>
+      </c>
+      <c r="AJ65" s="20">
+        <v>87.707303480986809</v>
+      </c>
+      <c r="AK65" s="20">
+        <v>94.583655343330307</v>
+      </c>
+      <c r="AL65" s="20">
+        <v>95.378720193950812</v>
+      </c>
+      <c r="AM65" s="20">
+        <v>96.232799521389509</v>
+      </c>
+      <c r="AN65" s="20">
+        <v>97.117148066376075</v>
+      </c>
+      <c r="AO65" s="20">
+        <v>98.875017219080732</v>
+      </c>
+      <c r="AP65" s="20">
+        <v>101.26705905100127</v>
+      </c>
+      <c r="AQ65" s="20">
+        <v>102.36878646920988</v>
+      </c>
+      <c r="AR65" s="20">
+        <v>104.42672088314086</v>
+      </c>
+      <c r="AS65" s="20">
+        <v>107.34597154306813</v>
+      </c>
+      <c r="AT65" s="20">
+        <v>108.5390689081857</v>
+      </c>
+      <c r="AU65" s="20">
+        <v>109.87183770193487</v>
+      </c>
+      <c r="AV65" s="20">
+        <v>113.26139517171626</v>
+      </c>
+      <c r="AW65" s="20">
+        <v>118.3263930853535</v>
+      </c>
+      <c r="AX65" s="20">
+        <v>121.68056699382443</v>
+      </c>
+      <c r="AY65" s="20">
+        <v>123.19557929990989</v>
+      </c>
+      <c r="AZ65" s="20">
+        <v>126.27168655701811</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="20">
+        <v>0</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
+        <v>0</v>
+      </c>
+      <c r="I66" s="20">
+        <v>0</v>
+      </c>
+      <c r="J66" s="20">
+        <v>0</v>
+      </c>
+      <c r="K66" s="20">
+        <v>0</v>
+      </c>
+      <c r="L66" s="20">
+        <v>0</v>
+      </c>
+      <c r="M66" s="20">
+        <v>0</v>
+      </c>
+      <c r="N66" s="20">
+        <v>0</v>
+      </c>
+      <c r="O66" s="20">
+        <v>0</v>
+      </c>
+      <c r="P66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>0</v>
+      </c>
+      <c r="R66" s="20">
+        <v>0</v>
+      </c>
+      <c r="S66" s="20">
+        <v>0</v>
+      </c>
+      <c r="T66" s="20">
+        <v>0</v>
+      </c>
+      <c r="U66" s="20">
+        <v>0</v>
+      </c>
+      <c r="V66" s="20">
+        <v>0</v>
+      </c>
+      <c r="W66" s="20">
+        <v>0</v>
+      </c>
+      <c r="X66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="20">
+        <v>0</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>268.60569767441859</v>
+      </c>
+      <c r="F67" s="20">
+        <v>4733.4972093023252</v>
+      </c>
+      <c r="G67" s="20">
+        <v>4706.0973762351005</v>
+      </c>
+      <c r="H67" s="20">
+        <v>4808.6804651162784</v>
+      </c>
+      <c r="I67" s="20">
+        <v>4774.0226744186039</v>
+      </c>
+      <c r="J67" s="20">
+        <v>4802.0666279069756</v>
+      </c>
+      <c r="K67" s="20">
+        <v>4824.8786046511614</v>
+      </c>
+      <c r="L67" s="20">
+        <v>4706.9527092609414</v>
+      </c>
+      <c r="M67" s="20">
+        <v>4844.1278338805369</v>
+      </c>
+      <c r="N67" s="20">
+        <v>4952.9896947877696</v>
+      </c>
+      <c r="O67" s="20">
+        <v>4781.3762561776166</v>
+      </c>
+      <c r="P67" s="20">
+        <v>5023.238176125642</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>5056.8532191346358</v>
+      </c>
+      <c r="R67" s="20">
+        <v>5091.2142196902232</v>
+      </c>
+      <c r="S67" s="20">
+        <v>5103.339521240986</v>
+      </c>
+      <c r="T67" s="20">
+        <v>5103.4494600416156</v>
+      </c>
+      <c r="U67" s="20">
+        <v>5020.6291147396796</v>
+      </c>
+      <c r="V67" s="20">
+        <v>5035.3893544934253</v>
+      </c>
+      <c r="W67" s="20">
+        <v>5082.5828198160571</v>
+      </c>
+      <c r="X67" s="20">
+        <v>5145.8352861160965</v>
+      </c>
+      <c r="Y67" s="20">
+        <v>5567.2028101800779</v>
+      </c>
+      <c r="Z67" s="20">
+        <v>6058.0151170360059</v>
+      </c>
+      <c r="AA67" s="20">
+        <v>6141.1049414742429</v>
+      </c>
+      <c r="AB67" s="20">
+        <v>6236.2285959771798</v>
+      </c>
+      <c r="AC67" s="20">
+        <v>6359.8162990834962</v>
+      </c>
+      <c r="AD67" s="20">
+        <v>6835.2579821488453</v>
+      </c>
+      <c r="AE67" s="20">
+        <v>7118.9156762805624</v>
+      </c>
+      <c r="AF67" s="20">
+        <v>7233.8617019285048</v>
+      </c>
+      <c r="AG67" s="20">
+        <v>7337.5492643841426</v>
+      </c>
+      <c r="AH67" s="20">
+        <v>7753.9731514738014</v>
+      </c>
+      <c r="AI67" s="20">
+        <v>8187.9873067212811</v>
+      </c>
+      <c r="AJ67" s="20">
+        <v>8456.1585500809342</v>
+      </c>
+      <c r="AK67" s="20">
+        <v>8880.1455618867913</v>
+      </c>
+      <c r="AL67" s="20">
+        <v>8992.3074201959116</v>
+      </c>
+      <c r="AM67" s="20">
+        <v>9107.8454372553806</v>
+      </c>
+      <c r="AN67" s="20">
+        <v>9223.6472820455638</v>
+      </c>
+      <c r="AO67" s="20">
+        <v>9338.519499040658</v>
+      </c>
+      <c r="AP67" s="20">
+        <v>9452.108315983749</v>
+      </c>
+      <c r="AQ67" s="20">
+        <v>9564.5988472451572</v>
+      </c>
+      <c r="AR67" s="20">
+        <v>9676.2280317500772</v>
+      </c>
+      <c r="AS67" s="20">
+        <v>9965.4297286834244</v>
+      </c>
+      <c r="AT67" s="20">
+        <v>10252.998917756784</v>
+      </c>
+      <c r="AU67" s="20">
+        <v>10382.073963380959</v>
+      </c>
+      <c r="AV67" s="20">
+        <v>10496.639398622845</v>
+      </c>
+      <c r="AW67" s="20">
+        <v>10621.748716593902</v>
+      </c>
+      <c r="AX67" s="20">
+        <v>10819.361347529668</v>
+      </c>
+      <c r="AY67" s="20">
+        <v>10969.377382451021</v>
+      </c>
+      <c r="AZ67" s="20">
+        <v>11093.735204313381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="18">
+        <v>15574.976178736671</v>
+      </c>
+      <c r="C68" s="18">
+        <v>14808.141511627913</v>
+      </c>
+      <c r="D68" s="18">
+        <v>8876.7694186046519</v>
+      </c>
+      <c r="E68" s="18">
+        <v>7659.2884883720963</v>
+      </c>
+      <c r="F68" s="18">
+        <v>4944.584302325582</v>
+      </c>
+      <c r="G68" s="18">
+        <v>5086.8621425921037</v>
+      </c>
+      <c r="H68" s="18">
+        <v>5067.436511627905</v>
+      </c>
+      <c r="I68" s="18">
+        <v>5140.8805813953495</v>
+      </c>
+      <c r="J68" s="18">
+        <v>5171.9252325581401</v>
+      </c>
+      <c r="K68" s="18">
+        <v>5157.4096511627922</v>
+      </c>
+      <c r="L68" s="18">
+        <v>5165.4603342439359</v>
+      </c>
+      <c r="M68" s="18">
+        <v>5077.974853415285</v>
+      </c>
+      <c r="N68" s="18">
+        <v>5348.2039899484707</v>
+      </c>
+      <c r="O68" s="18">
+        <v>5244.0591464377239</v>
+      </c>
+      <c r="P68" s="18">
+        <v>5202.9539622603297</v>
+      </c>
+      <c r="Q68" s="18">
+        <v>5323.4845148830254</v>
+      </c>
+      <c r="R68" s="18">
+        <v>5603.9318506165127</v>
+      </c>
+      <c r="S68" s="18">
+        <v>5638.6774359241253</v>
+      </c>
+      <c r="T68" s="18">
+        <v>5895.6116842449073</v>
+      </c>
+      <c r="U68" s="18">
+        <v>6160.6974546019301</v>
+      </c>
+      <c r="V68" s="18">
+        <v>6333.7389951167079</v>
+      </c>
+      <c r="W68" s="18">
+        <v>6033.5879661565705</v>
+      </c>
+      <c r="X68" s="18">
+        <v>5453.1946945247928</v>
+      </c>
+      <c r="Y68" s="18">
+        <v>5271.2947874318315</v>
+      </c>
+      <c r="Z68" s="18">
+        <v>5201.1452862548076</v>
+      </c>
+      <c r="AA68" s="18">
+        <v>4992.6017973888602</v>
+      </c>
+      <c r="AB68" s="18">
+        <v>5274.2501746223752</v>
+      </c>
+      <c r="AC68" s="18">
+        <v>5548.7163493233193</v>
+      </c>
+      <c r="AD68" s="18">
+        <v>5762.4568702947827</v>
+      </c>
+      <c r="AE68" s="18">
+        <v>6004.6842206540032</v>
+      </c>
+      <c r="AF68" s="18">
+        <v>5871.7527778579424</v>
+      </c>
+      <c r="AG68" s="18">
+        <v>6140.852197727294</v>
+      </c>
+      <c r="AH68" s="18">
+        <v>6240.9043669955618</v>
+      </c>
+      <c r="AI68" s="18">
+        <v>6339.52521123935</v>
+      </c>
+      <c r="AJ68" s="18">
+        <v>6411.8332446702088</v>
+      </c>
+      <c r="AK68" s="18">
+        <v>6339.460932493088</v>
+      </c>
+      <c r="AL68" s="18">
+        <v>6213.0815242910548</v>
+      </c>
+      <c r="AM68" s="18">
+        <v>6294.8889401804072</v>
+      </c>
+      <c r="AN68" s="18">
+        <v>6358.7762214027825</v>
+      </c>
+      <c r="AO68" s="18">
+        <v>6411.3092260163903</v>
+      </c>
+      <c r="AP68" s="18">
+        <v>6482.7785344736676</v>
+      </c>
+      <c r="AQ68" s="18">
+        <v>6564.7614559224603</v>
+      </c>
+      <c r="AR68" s="18">
+        <v>6638.0542370785506</v>
+      </c>
+      <c r="AS68" s="18">
+        <v>6701.843955751001</v>
+      </c>
+      <c r="AT68" s="18">
+        <v>6768.9366500298793</v>
+      </c>
+      <c r="AU68" s="18">
+        <v>6867.6789053144994</v>
+      </c>
+      <c r="AV68" s="18">
+        <v>6930.37098428432</v>
+      </c>
+      <c r="AW68" s="18">
+        <v>7001.3165761166665</v>
+      </c>
+      <c r="AX68" s="18">
+        <v>7090.308311685375</v>
+      </c>
+      <c r="AY68" s="18">
+        <v>7155.3857638049722</v>
+      </c>
+      <c r="AZ68" s="18">
+        <v>7215.775667785113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="20">
+        <v>516.57303875781201</v>
+      </c>
+      <c r="C69" s="20">
+        <v>370.93034883720998</v>
+      </c>
+      <c r="D69" s="20">
+        <v>386.05081395348725</v>
+      </c>
+      <c r="E69" s="20">
+        <v>125.60127906976697</v>
+      </c>
+      <c r="F69" s="20">
+        <v>603.53372093023211</v>
+      </c>
+      <c r="G69" s="20">
+        <v>603.77992115715517</v>
+      </c>
+      <c r="H69" s="20">
+        <v>603.48441860465095</v>
+      </c>
+      <c r="I69" s="20">
+        <v>603.50767441860467</v>
+      </c>
+      <c r="J69" s="20">
+        <v>603.60569767441882</v>
+      </c>
+      <c r="K69" s="20">
+        <v>603.53906976744202</v>
+      </c>
+      <c r="L69" s="20">
+        <v>603.78035198915666</v>
+      </c>
+      <c r="M69" s="20">
+        <v>603.78020845136791</v>
+      </c>
+      <c r="N69" s="20">
+        <v>603.77946944590121</v>
+      </c>
+      <c r="O69" s="20">
+        <v>603.78160085011586</v>
+      </c>
+      <c r="P69" s="20">
+        <v>603.7803946810044</v>
+      </c>
+      <c r="Q69" s="20">
+        <v>603.7800154087912</v>
+      </c>
+      <c r="R69" s="20">
+        <v>656.10391699230604</v>
+      </c>
+      <c r="S69" s="20">
+        <v>681.53143002996887</v>
+      </c>
+      <c r="T69" s="20">
+        <v>696.51861459660199</v>
+      </c>
+      <c r="U69" s="20">
+        <v>733.58136670433532</v>
+      </c>
+      <c r="V69" s="20">
+        <v>390.22768552886453</v>
+      </c>
+      <c r="W69" s="20">
+        <v>385.12031760111097</v>
+      </c>
+      <c r="X69" s="20">
+        <v>382.21853229812001</v>
+      </c>
+      <c r="Y69" s="20">
+        <v>406.38661475390086</v>
+      </c>
+      <c r="Z69" s="20">
+        <v>438.76829131685247</v>
+      </c>
+      <c r="AA69" s="20">
+        <v>476.51117138261969</v>
+      </c>
+      <c r="AB69" s="20">
+        <v>516.70099775776873</v>
+      </c>
+      <c r="AC69" s="20">
+        <v>525.38175397497059</v>
+      </c>
+      <c r="AD69" s="20">
+        <v>557.53813653286625</v>
+      </c>
+      <c r="AE69" s="20">
+        <v>589.95217995014423</v>
+      </c>
+      <c r="AF69" s="20">
+        <v>582.25630975258139</v>
+      </c>
+      <c r="AG69" s="20">
+        <v>617.74546059893066</v>
+      </c>
+      <c r="AH69" s="20">
+        <v>624.73132725446953</v>
+      </c>
+      <c r="AI69" s="20">
+        <v>630.33532548766902</v>
+      </c>
+      <c r="AJ69" s="20">
+        <v>635.08948684714665</v>
+      </c>
+      <c r="AK69" s="20">
+        <v>639.13182641177571</v>
+      </c>
+      <c r="AL69" s="20">
+        <v>641.30301700684663</v>
+      </c>
+      <c r="AM69" s="20">
+        <v>646.11602242453012</v>
+      </c>
+      <c r="AN69" s="20">
+        <v>649.40169538188718</v>
+      </c>
+      <c r="AO69" s="20">
+        <v>650.83753357572539</v>
+      </c>
+      <c r="AP69" s="20">
+        <v>652.13183520631571</v>
+      </c>
+      <c r="AQ69" s="20">
+        <v>653.73404286187554</v>
+      </c>
+      <c r="AR69" s="20">
+        <v>654.60553751706584</v>
+      </c>
+      <c r="AS69" s="20">
+        <v>654.26899388133302</v>
+      </c>
+      <c r="AT69" s="20">
+        <v>654.34795010632331</v>
+      </c>
+      <c r="AU69" s="20">
+        <v>657.66644685880203</v>
+      </c>
+      <c r="AV69" s="20">
+        <v>657.50909743863906</v>
+      </c>
+      <c r="AW69" s="20">
+        <v>658.11617927299801</v>
+      </c>
+      <c r="AX69" s="20">
+        <v>660.48806204836774</v>
+      </c>
+      <c r="AY69" s="20">
+        <v>660.83115959740883</v>
+      </c>
+      <c r="AZ69" s="20">
+        <v>660.48578253540609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="20">
+        <v>15058.40313997886</v>
+      </c>
+      <c r="C70" s="20">
+        <v>14352.327441860469</v>
+      </c>
+      <c r="D70" s="20">
+        <v>8490.7186046511652</v>
+      </c>
+      <c r="E70" s="20">
+        <v>7533.6872093023294</v>
+      </c>
+      <c r="F70" s="20">
+        <v>4341.0505813953505</v>
+      </c>
+      <c r="G70" s="20">
+        <v>4483.0822214349491</v>
+      </c>
+      <c r="H70" s="20">
+        <v>4463.9520930232538</v>
+      </c>
+      <c r="I70" s="20">
+        <v>4537.3729069767442</v>
+      </c>
+      <c r="J70" s="20">
+        <v>4568.3195348837207</v>
+      </c>
+      <c r="K70" s="20">
+        <v>4553.8705813953502</v>
+      </c>
+      <c r="L70" s="20">
+        <v>4561.67998225478</v>
+      </c>
+      <c r="M70" s="20">
+        <v>4474.1946449639154</v>
+      </c>
+      <c r="N70" s="20">
+        <v>4744.42452050257</v>
+      </c>
+      <c r="O70" s="20">
+        <v>4640.2775455876081</v>
+      </c>
+      <c r="P70" s="20">
+        <v>4599.1735675793261</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>4719.7044994742328</v>
+      </c>
+      <c r="R70" s="20">
+        <v>4947.8279336242076</v>
+      </c>
+      <c r="S70" s="20">
+        <v>4957.1460058941548</v>
+      </c>
+      <c r="T70" s="20">
+        <v>5199.0930696483056</v>
+      </c>
+      <c r="U70" s="20">
+        <v>5427.1160878975943</v>
+      </c>
+      <c r="V70" s="20">
+        <v>5943.486560605852</v>
+      </c>
+      <c r="W70" s="20">
+        <v>5648.4213477473822</v>
+      </c>
+      <c r="X70" s="20">
+        <v>5070.9315330364407</v>
+      </c>
+      <c r="Y70" s="20">
+        <v>4864.8653317749904</v>
+      </c>
+      <c r="Z70" s="20">
+        <v>4762.3340127575284</v>
+      </c>
+      <c r="AA70" s="20">
+        <v>4516.023944489305</v>
+      </c>
+      <c r="AB70" s="20">
+        <v>4757.479872031613</v>
+      </c>
+      <c r="AC70" s="20">
+        <v>5023.2620521114695</v>
+      </c>
+      <c r="AD70" s="20">
+        <v>5204.843029972425</v>
+      </c>
+      <c r="AE70" s="20">
+        <v>5414.6451195726077</v>
+      </c>
+      <c r="AF70" s="20">
+        <v>5289.385775776931</v>
+      </c>
+      <c r="AG70" s="20">
+        <v>5522.9803442418415</v>
+      </c>
+      <c r="AH70" s="20">
+        <v>5616.0255226065219</v>
+      </c>
+      <c r="AI70" s="20">
+        <v>5709.0113913703462</v>
+      </c>
+      <c r="AJ70" s="20">
+        <v>5776.5498452654156</v>
+      </c>
+      <c r="AK70" s="20">
+        <v>5700.1065148282269</v>
+      </c>
+      <c r="AL70" s="20">
+        <v>5571.553004910199</v>
+      </c>
+      <c r="AM70" s="20">
+        <v>5648.5444661206602</v>
+      </c>
+      <c r="AN70" s="20">
+        <v>5709.1431176553297</v>
+      </c>
+      <c r="AO70" s="20">
+        <v>5760.2385749380601</v>
+      </c>
+      <c r="AP70" s="20">
+        <v>5830.4141457634769</v>
+      </c>
+      <c r="AQ70" s="20">
+        <v>5910.7944712130457</v>
+      </c>
+      <c r="AR70" s="20">
+        <v>5983.2164141892845</v>
+      </c>
+      <c r="AS70" s="20">
+        <v>6047.3457047698748</v>
+      </c>
+      <c r="AT70" s="20">
+        <v>6114.3602175523165</v>
+      </c>
+      <c r="AU70" s="20">
+        <v>6209.7886703271197</v>
+      </c>
+      <c r="AV70" s="20">
+        <v>6272.6371166342342</v>
+      </c>
+      <c r="AW70" s="20">
+        <v>6342.9750209824215</v>
+      </c>
+      <c r="AX70" s="20">
+        <v>6429.5941965530665</v>
+      </c>
+      <c r="AY70" s="20">
+        <v>6494.3280548620041</v>
+      </c>
+      <c r="AZ70" s="20">
+        <v>6555.0629040454305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="20">
+        <v>0</v>
+      </c>
+      <c r="C71" s="20">
+        <v>84.883720930232556</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0</v>
+      </c>
+      <c r="E71" s="20">
+        <v>0</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0</v>
+      </c>
+      <c r="I71" s="20">
+        <v>0</v>
+      </c>
+      <c r="J71" s="20">
+        <v>0</v>
+      </c>
+      <c r="K71" s="20">
+        <v>0</v>
+      </c>
+      <c r="L71" s="20">
+        <v>0</v>
+      </c>
+      <c r="M71" s="20">
+        <v>0</v>
+      </c>
+      <c r="N71" s="20">
+        <v>0</v>
+      </c>
+      <c r="O71" s="20">
+        <v>0</v>
+      </c>
+      <c r="P71" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>0</v>
+      </c>
+      <c r="R71" s="20">
+        <v>0</v>
+      </c>
+      <c r="S71" s="20">
+        <v>0</v>
+      </c>
+      <c r="T71" s="20">
+        <v>0</v>
+      </c>
+      <c r="U71" s="20">
+        <v>0</v>
+      </c>
+      <c r="V71" s="20">
+        <v>2.4748981992132161E-2</v>
+      </c>
+      <c r="W71" s="20">
+        <v>4.6300808077978255E-2</v>
+      </c>
+      <c r="X71" s="20">
+        <v>4.4629190230986042E-2</v>
+      </c>
+      <c r="Y71" s="20">
+        <v>4.2840902940729245E-2</v>
+      </c>
+      <c r="Z71" s="20">
+        <v>4.2982180426313035E-2</v>
+      </c>
+      <c r="AA71" s="20">
+        <v>6.6681516935061594E-2</v>
+      </c>
+      <c r="AB71" s="20">
+        <v>6.9304832992879623E-2</v>
+      </c>
+      <c r="AC71" s="20">
+        <v>7.2543236879761622E-2</v>
+      </c>
+      <c r="AD71" s="20">
+        <v>7.5703789491056356E-2</v>
+      </c>
+      <c r="AE71" s="20">
+        <v>8.6921131252086337E-2</v>
+      </c>
+      <c r="AF71" s="20">
+        <v>0.11069232842926983</v>
+      </c>
+      <c r="AG71" s="20">
+        <v>0.12639288652220476</v>
+      </c>
+      <c r="AH71" s="20">
+        <v>0.14751713457104057</v>
+      </c>
+      <c r="AI71" s="20">
+        <v>0.17849438133391146</v>
+      </c>
+      <c r="AJ71" s="20">
+        <v>0.19391255764502127</v>
+      </c>
+      <c r="AK71" s="20">
+        <v>0.22259125308540301</v>
+      </c>
+      <c r="AL71" s="20">
+        <v>0.2255023740105602</v>
+      </c>
+      <c r="AM71" s="20">
+        <v>0.22845163521752793</v>
+      </c>
+      <c r="AN71" s="20">
+        <v>0.23140836556664854</v>
+      </c>
+      <c r="AO71" s="20">
+        <v>0.23311750260503572</v>
+      </c>
+      <c r="AP71" s="20">
+        <v>0.23255350387591397</v>
+      </c>
+      <c r="AQ71" s="20">
+        <v>0.23294184753943292</v>
+      </c>
+      <c r="AR71" s="20">
+        <v>0.23228537219961012</v>
+      </c>
+      <c r="AS71" s="20">
+        <v>0.22925709979219419</v>
+      </c>
+      <c r="AT71" s="20">
+        <v>0.22848237124023538</v>
+      </c>
+      <c r="AU71" s="20">
+        <v>0.22378812857917399</v>
+      </c>
+      <c r="AV71" s="20">
+        <v>0.22477021144769443</v>
+      </c>
+      <c r="AW71" s="20">
+        <v>0.22537586124670625</v>
+      </c>
+      <c r="AX71" s="20">
+        <v>0.22605308394020848</v>
+      </c>
+      <c r="AY71" s="20">
+        <v>0.22654934555898712</v>
+      </c>
+      <c r="AZ71" s="20">
+        <v>0.2269812042766407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="22">
+        <v>0</v>
+      </c>
+      <c r="C72" s="22">
+        <v>0</v>
+      </c>
+      <c r="D72" s="22">
+        <v>0</v>
+      </c>
+      <c r="E72" s="22">
+        <v>0</v>
+      </c>
+      <c r="F72" s="22">
+        <v>0</v>
+      </c>
+      <c r="G72" s="22">
+        <v>0</v>
+      </c>
+      <c r="H72" s="22">
+        <v>0</v>
+      </c>
+      <c r="I72" s="22">
+        <v>0</v>
+      </c>
+      <c r="J72" s="22">
+        <v>1.1627906976744184</v>
+      </c>
+      <c r="K72" s="22">
+        <v>0</v>
+      </c>
+      <c r="L72" s="22">
+        <v>0.27774251765177776</v>
+      </c>
+      <c r="M72" s="22">
+        <v>-0.27772778677616328</v>
+      </c>
+      <c r="N72" s="22">
+        <v>0</v>
+      </c>
+      <c r="O72" s="22">
+        <v>0</v>
+      </c>
+      <c r="P72" s="22">
+        <v>0.27774207068650492</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>0</v>
+      </c>
+      <c r="R72" s="22">
+        <v>0</v>
+      </c>
+      <c r="S72" s="22">
+        <v>0</v>
+      </c>
+      <c r="T72" s="22">
+        <v>0</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0</v>
+      </c>
+      <c r="V72" s="22">
+        <v>0</v>
+      </c>
+      <c r="W72" s="22">
+        <v>0</v>
+      </c>
+      <c r="X72" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24">
+        <f>(B15-B53)/(B5-B43)</f>
+        <v>7.3650223825148825E-2</v>
+      </c>
+      <c r="C74" s="24">
+        <f t="shared" ref="C74:AZ74" si="1">(C15-C53)/(C5-C43)</f>
+        <v>7.498714829879817E-2</v>
+      </c>
+      <c r="D74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.3455679393088183E-2</v>
+      </c>
+      <c r="E74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.6141113966191318E-2</v>
+      </c>
+      <c r="F74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.2459160788926789E-2</v>
+      </c>
+      <c r="G74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1436329684675304E-2</v>
+      </c>
+      <c r="H74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1187724779519535E-2</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.9210466164798696E-2</v>
+      </c>
+      <c r="J74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1515785273293048E-2</v>
+      </c>
+      <c r="K74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1557878817189136E-2</v>
+      </c>
+      <c r="L74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.4655731601050893E-2</v>
+      </c>
+      <c r="M74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.2323519139393541E-2</v>
+      </c>
+      <c r="N74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.9474991092157984E-2</v>
+      </c>
+      <c r="O74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.4802252600474281E-2</v>
+      </c>
+      <c r="P74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.9136476921621901E-2</v>
+      </c>
+      <c r="Q74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1654380172528143E-2</v>
+      </c>
+      <c r="R74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.3842431826688851E-2</v>
+      </c>
+      <c r="S74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.2256014062329255E-2</v>
+      </c>
+      <c r="T74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.2178163029262938E-2</v>
+      </c>
+      <c r="U74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.1087690623797323E-2</v>
+      </c>
+      <c r="V74" s="24">
+        <f t="shared" si="1"/>
+        <v>8.0106043427172494E-2</v>
+      </c>
+      <c r="W74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.8779474258859311E-2</v>
+      </c>
+      <c r="X74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.7672774092356692E-2</v>
+      </c>
+      <c r="Y74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.5863514466749438E-2</v>
+      </c>
+      <c r="Z74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.4600119981823684E-2</v>
+      </c>
+      <c r="AA74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.3092650641394058E-2</v>
+      </c>
+      <c r="AB74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.1626191939300421E-2</v>
+      </c>
+      <c r="AC74" s="24">
+        <f t="shared" si="1"/>
+        <v>7.0242263439014838E-2</v>
+      </c>
+      <c r="AD74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.9221634682118394E-2</v>
+      </c>
+      <c r="AE74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.7767606948088657E-2</v>
+      </c>
+      <c r="AF74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.6519788248741912E-2</v>
+      </c>
+      <c r="AG74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.5460596674024818E-2</v>
+      </c>
+      <c r="AH74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.4371551942373151E-2</v>
+      </c>
+      <c r="AI74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.3285009215203761E-2</v>
+      </c>
+      <c r="AJ74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.2409277222826562E-2</v>
+      </c>
+      <c r="AK74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.154956706577587E-2</v>
+      </c>
+      <c r="AL74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.0918723298437297E-2</v>
+      </c>
+      <c r="AM74" s="24">
+        <f t="shared" si="1"/>
+        <v>6.029000742097803E-2</v>
+      </c>
+      <c r="AN74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.9708960346564526E-2</v>
+      </c>
+      <c r="AO74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.9216557553763857E-2</v>
+      </c>
+      <c r="AP74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.8781699770391653E-2</v>
+      </c>
+      <c r="AQ74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.8389057125524627E-2</v>
+      </c>
+      <c r="AR74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.8000655607523058E-2</v>
+      </c>
+      <c r="AS74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.7642374528791465E-2</v>
+      </c>
+      <c r="AT74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.7367957273000793E-2</v>
+      </c>
+      <c r="AU74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.7167601243225397E-2</v>
+      </c>
+      <c r="AV74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.6944825847791633E-2</v>
+      </c>
+      <c r="AW74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.6646933873251877E-2</v>
+      </c>
+      <c r="AX74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.6441534729526163E-2</v>
+      </c>
+      <c r="AY74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.6255447797115624E-2</v>
+      </c>
+      <c r="AZ74" s="24">
+        <f t="shared" si="1"/>
+        <v>5.6004524337651837E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6413,8 +11994,8 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6525,128 +12106,128 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <f>'Steam Balance'!V36</f>
-        <v>7.8042421544821536E-2</v>
+        <f>'Steam Balance'!B74</f>
+        <v>7.3650223825148825E-2</v>
       </c>
       <c r="C2" s="4">
-        <f>'Steam Balance'!W36</f>
-        <v>7.6817373575139569E-2</v>
+        <f>'Steam Balance'!C74</f>
+        <v>7.498714829879817E-2</v>
       </c>
       <c r="D2" s="4">
-        <f>'Steam Balance'!X36</f>
-        <v>7.5866296630872784E-2</v>
+        <f>'Steam Balance'!D74</f>
+        <v>7.3455679393088183E-2</v>
       </c>
       <c r="E2" s="4">
-        <f>'Steam Balance'!Y36</f>
-        <v>7.4088849920794592E-2</v>
+        <f>'Steam Balance'!E74</f>
+        <v>7.6141113966191318E-2</v>
       </c>
       <c r="F2" s="4">
-        <f>'Steam Balance'!Z36</f>
-        <v>7.2926591900081286E-2</v>
+        <f>'Steam Balance'!F74</f>
+        <v>8.2459160788926789E-2</v>
       </c>
       <c r="G2" s="4">
-        <f>'Steam Balance'!AA36</f>
-        <v>7.1549859143419423E-2</v>
+        <f>'Steam Balance'!G74</f>
+        <v>8.1436329684675304E-2</v>
       </c>
       <c r="H2" s="4">
-        <f>'Steam Balance'!AB36</f>
-        <v>7.0167918996317483E-2</v>
+        <f>'Steam Balance'!H74</f>
+        <v>8.1187724779519535E-2</v>
       </c>
       <c r="I2" s="4">
-        <f>'Steam Balance'!AC36</f>
-        <v>6.88793312389233E-2</v>
+        <f>'Steam Balance'!I74</f>
+        <v>7.9210466164798696E-2</v>
       </c>
       <c r="J2" s="4">
-        <f>'Steam Balance'!AD36</f>
-        <v>6.7951388809084315E-2</v>
+        <f>'Steam Balance'!J74</f>
+        <v>8.1515785273293048E-2</v>
       </c>
       <c r="K2" s="4">
-        <f>'Steam Balance'!AE36</f>
-        <v>6.6582362044755664E-2</v>
+        <f>'Steam Balance'!K74</f>
+        <v>8.1557878817189136E-2</v>
       </c>
       <c r="L2" s="4">
-        <f>'Steam Balance'!AF36</f>
-        <v>6.5442333902519634E-2</v>
+        <f>'Steam Balance'!L74</f>
+        <v>7.4655731601050893E-2</v>
       </c>
       <c r="M2" s="4">
-        <f>'Steam Balance'!AG36</f>
-        <v>6.4479461963519905E-2</v>
+        <f>'Steam Balance'!M74</f>
+        <v>7.2323519139393541E-2</v>
       </c>
       <c r="N2" s="4">
-        <f>'Steam Balance'!AH36</f>
-        <v>6.3482141414654275E-2</v>
+        <f>'Steam Balance'!N74</f>
+        <v>7.9474991092157984E-2</v>
       </c>
       <c r="O2" s="4">
-        <f>'Steam Balance'!AI36</f>
-        <v>6.2483282767612246E-2</v>
+        <f>'Steam Balance'!O74</f>
+        <v>7.4802252600474281E-2</v>
       </c>
       <c r="P2" s="4">
-        <f>'Steam Balance'!AJ36</f>
-        <v>6.1678994897170179E-2</v>
+        <f>'Steam Balance'!P74</f>
+        <v>7.9136476921621901E-2</v>
       </c>
       <c r="Q2" s="4">
-        <f>'Steam Balance'!AK36</f>
-        <v>6.0819925884275955E-2</v>
+        <f>'Steam Balance'!Q74</f>
+        <v>8.1654380172528143E-2</v>
       </c>
       <c r="R2" s="4">
-        <f>'Steam Balance'!AL36</f>
-        <v>6.0242396742824438E-2</v>
+        <f>'Steam Balance'!R74</f>
+        <v>8.3842431826688851E-2</v>
       </c>
       <c r="S2" s="4">
-        <f>'Steam Balance'!AM36</f>
-        <v>5.9629078542316909E-2</v>
+        <f>'Steam Balance'!S74</f>
+        <v>8.2256014062329255E-2</v>
       </c>
       <c r="T2" s="4">
-        <f>'Steam Balance'!AN36</f>
-        <v>5.9062785353145533E-2</v>
+        <f>'Steam Balance'!T74</f>
+        <v>8.2178163029262938E-2</v>
       </c>
       <c r="U2" s="4">
-        <f>'Steam Balance'!AO36</f>
-        <v>5.8583322859964641E-2</v>
+        <f>'Steam Balance'!U74</f>
+        <v>8.1087690623797323E-2</v>
       </c>
       <c r="V2" s="4">
-        <f>'Steam Balance'!AP36</f>
-        <v>5.8157843522662372E-2</v>
+        <f>'Steam Balance'!V74</f>
+        <v>8.0106043427172494E-2</v>
       </c>
       <c r="W2" s="4">
-        <f>'Steam Balance'!AQ36</f>
-        <v>5.7736816436491221E-2</v>
+        <f>'Steam Balance'!W74</f>
+        <v>7.8779474258859311E-2</v>
       </c>
       <c r="X2" s="4">
-        <f>'Steam Balance'!AR36</f>
-        <v>5.7367556317452759E-2</v>
+        <f>'Steam Balance'!X74</f>
+        <v>7.7672774092356692E-2</v>
       </c>
       <c r="Y2" s="4">
-        <f>'Steam Balance'!AS36</f>
-        <v>5.6996141437097143E-2</v>
+        <f>'Steam Balance'!Y74</f>
+        <v>7.5863514466749438E-2</v>
       </c>
       <c r="Z2" s="4">
-        <f>'Steam Balance'!AT36</f>
-        <v>5.6737571946367416E-2</v>
+        <f>'Steam Balance'!Z74</f>
+        <v>7.4600119981823684E-2</v>
       </c>
       <c r="AA2" s="4">
-        <f>'Steam Balance'!AU36</f>
-        <v>5.6540406056638577E-2</v>
+        <f>'Steam Balance'!AA74</f>
+        <v>7.3092650641394058E-2</v>
       </c>
       <c r="AB2" s="4">
-        <f>'Steam Balance'!AV36</f>
-        <v>5.6317195248007865E-2</v>
+        <f>'Steam Balance'!AB74</f>
+        <v>7.1626191939300421E-2</v>
       </c>
       <c r="AC2" s="4">
-        <f>'Steam Balance'!AW36</f>
-        <v>5.6022901476519338E-2</v>
+        <f>'Steam Balance'!AC74</f>
+        <v>7.0242263439014838E-2</v>
       </c>
       <c r="AD2" s="4">
-        <f>'Steam Balance'!AX36</f>
-        <v>5.5819757586470807E-2</v>
+        <f>'Steam Balance'!AD74</f>
+        <v>6.9221634682118394E-2</v>
       </c>
       <c r="AE2" s="4">
-        <f>'Steam Balance'!AY36</f>
-        <v>5.5623875568735687E-2</v>
+        <f>'Steam Balance'!AE74</f>
+        <v>6.7767606948088657E-2</v>
       </c>
       <c r="AF2" s="4">
-        <f>'Steam Balance'!AZ36</f>
-        <v>5.5369911631663542E-2</v>
+        <f>'Steam Balance'!AF74</f>
+        <v>6.6519788248741912E-2</v>
       </c>
     </row>
   </sheetData>
